--- a/SDP/Filexel/RegSelenium.xlsx
+++ b/SDP/Filexel/RegSelenium.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\SDP\Filexel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30271E2F-3A27-4CCD-B4D1-6191B2882DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="RegSelenium"/>
-    <sheet r:id="rId2" sheetId="2" name="wbp"/>
+    <sheet name="RegSelenium" sheetId="1" r:id="rId1"/>
+    <sheet name="wbp" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -827,9 +833,6 @@
     <t>namawbp</t>
   </si>
   <si>
-    <t>DR. YOGA ARDIAN</t>
-  </si>
-  <si>
     <t>NSP-01-01-008</t>
   </si>
   <si>
@@ -842,9 +845,6 @@
     <t>HUMAIRA</t>
   </si>
   <si>
-    <t>BELLA MARDHIYAh BINT</t>
-  </si>
-  <si>
     <t>NSP-01-01-009</t>
   </si>
   <si>
@@ -855,14 +855,19 @@
   </si>
   <si>
     <t>R. VICKY USAMAH</t>
+  </si>
+  <si>
+    <t>146202302010038</t>
+  </si>
+  <si>
+    <t>146202302010030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,7 +884,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF4c4c4c"/>
+      <color rgb="FF4C4C4C"/>
       <name val="Lato"/>
       <family val="2"/>
     </font>
@@ -889,6 +894,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF606266"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="4">
@@ -900,12 +910,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffc000"/>
+        <fgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffffff"/>
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -925,7 +935,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -934,13 +944,13 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -964,7 +974,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFcccccc"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -988,77 +998,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1069,10 +1085,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1110,71 +1126,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1202,7 +1218,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1225,11 +1241,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -1238,13 +1254,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1254,7 +1270,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1263,7 +1279,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1272,7 +1288,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1280,10 +1296,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1348,42 +1364,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="44.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="37.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="38.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="43.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="35.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="41.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="41.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="32.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="39.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="31.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="12" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="12" width="33.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="12" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="12" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="12" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="20" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="44.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>247</v>
       </c>
@@ -1454,15 +1472,15 @@
         <v>269</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A2" s="19" t="s">
-        <v>270</v>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="20" t="s">
+        <v>278</v>
       </c>
       <c r="B2" s="2">
         <v>144202303160001</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>98</v>
@@ -1489,7 +1507,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>77</v>
@@ -1498,7 +1516,7 @@
         <v>170</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>172</v>
@@ -1522,18 +1540,18 @@
         <v>77</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="31.5" customFormat="1" s="1">
-      <c r="A3" s="19" t="s">
-        <v>275</v>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="21" t="s">
+        <v>279</v>
       </c>
       <c r="B3" s="2">
         <v>144202303160002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>109</v>
@@ -1560,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>89</v>
@@ -1569,7 +1587,7 @@
         <v>182</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>184</v>
@@ -1593,16 +1611,17 @@
         <v>89</v>
       </c>
       <c r="W3" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1612,31 +1631,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="43.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="43.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="22" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>144202303160003</v>
       </c>
@@ -1704,7 +1706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>144202303160004</v>
       </c>
@@ -1772,7 +1774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>144202303160005</v>
       </c>
@@ -1840,7 +1842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="4" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>144202303160006</v>
       </c>
@@ -1908,7 +1910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="5" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>144202303160007</v>
       </c>
@@ -1976,7 +1978,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="6" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>144202303160008</v>
       </c>
@@ -2044,7 +2046,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="7" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>144202303160009</v>
       </c>
@@ -2112,7 +2114,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="8" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>144202303160010</v>
       </c>
@@ -2180,7 +2182,7 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="9" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>144202303160011</v>
       </c>
@@ -2248,7 +2250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="10" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>144202303160012</v>
       </c>
@@ -2316,7 +2318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="11" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>144202303160013</v>
       </c>
@@ -2384,7 +2386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="12" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>144202303160014</v>
       </c>
@@ -2452,7 +2454,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="13" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>144202303160015</v>
       </c>
@@ -2520,7 +2522,7 @@
         <v>145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="14" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>144202303160016</v>
       </c>
@@ -2588,7 +2590,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="15" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>144202303160017</v>
       </c>
@@ -2656,7 +2658,7 @@
         <v>169</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="16" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>144202303160018</v>
       </c>
@@ -2724,7 +2726,7 @@
         <v>181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="17" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>144202303160019</v>
       </c>
@@ -2792,7 +2794,7 @@
         <v>191</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="18" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>144202303160020</v>
       </c>
@@ -2860,7 +2862,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="19" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>144202303160021</v>
       </c>
@@ -2928,7 +2930,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="20" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>144202303160022</v>
       </c>
@@ -2996,7 +2998,7 @@
         <v>202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="21" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>144202303160023</v>
       </c>
@@ -3064,7 +3066,7 @@
         <v>206</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="22" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>144202303160024</v>
       </c>
@@ -3132,7 +3134,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="23" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>144202303160025</v>
       </c>
@@ -3200,7 +3202,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="24" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>144202303160026</v>
       </c>
@@ -3268,7 +3270,7 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="25" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>144202303160027</v>
       </c>
@@ -3336,7 +3338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="26" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>144202303160028</v>
       </c>
@@ -3404,7 +3406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="27" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>144202303160029</v>
       </c>
@@ -3472,7 +3474,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="28" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>144202303160030</v>
       </c>
@@ -3540,7 +3542,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="29" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>144202303160031</v>
       </c>
@@ -3554,7 +3556,7 @@
         <v>98</v>
       </c>
       <c r="E29" s="9">
-        <v>5.67117117117117</v>
+        <v>5.6711711711711699</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>87</v>
@@ -3608,7 +3610,7 @@
         <v>89</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="30" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>144202303160032</v>
       </c>
@@ -3622,7 +3624,7 @@
         <v>109</v>
       </c>
       <c r="E30" s="10">
-        <v>5.69511616880038</v>
+        <v>5.6951161688003804</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>99</v>
@@ -3676,7 +3678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="31" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>144202303160033</v>
       </c>
@@ -3690,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="9">
-        <v>5.71906116642959</v>
+        <v>5.7190611664295901</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>110</v>
@@ -3744,7 +3746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="32" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>144202303160034</v>
       </c>
@@ -3758,7 +3760,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="9">
-        <v>5.7430061640588</v>
+        <v>5.7430061640587997</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>121</v>
@@ -3812,7 +3814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="33" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>144202303160035</v>
       </c>
@@ -3826,7 +3828,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="9">
-        <v>5.766951161688</v>
+        <v>5.7669511616879996</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>131</v>
@@ -3880,7 +3882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row r="34" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>144202303160036</v>
       </c>
@@ -3894,7 +3896,7 @@
         <v>44</v>
       </c>
       <c r="E34" s="9">
-        <v>5.79089615931721</v>
+        <v>5.7908961593172101</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>142</v>

--- a/SDP/Filexel/RegSelenium.xlsx
+++ b/SDP/Filexel/RegSelenium.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\SDP\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30271E2F-3A27-4CCD-B4D1-6191B2882DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D89EEFF-FE09-4CFA-A398-4CC015897453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegSelenium" sheetId="1" r:id="rId1"/>
     <sheet name="wbp" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="544">
   <si>
     <t>NSP-01-01-010</t>
   </si>
@@ -833,34 +833,826 @@
     <t>namawbp</t>
   </si>
   <si>
-    <t>NSP-01-01-008</t>
-  </si>
-  <si>
     <t>Undang-Undang Nomor 1 Tahun 1958</t>
   </si>
   <si>
-    <t>Npts/013</t>
-  </si>
-  <si>
     <t>HUMAIRA</t>
   </si>
   <si>
-    <t>NSP-01-01-009</t>
-  </si>
-  <si>
     <t>Undang-Undang Nomor 1 Tahun 1959</t>
   </si>
   <si>
-    <t>Npts/014</t>
-  </si>
-  <si>
     <t>R. VICKY USAMAH</t>
   </si>
   <si>
-    <t>146202302010038</t>
-  </si>
-  <si>
-    <t>146202302010030</t>
+    <t>13/02/2011'</t>
+  </si>
+  <si>
+    <t>13/02/2012'</t>
+  </si>
+  <si>
+    <t>13/02/2013'</t>
+  </si>
+  <si>
+    <t>13/02/2014'</t>
+  </si>
+  <si>
+    <t>13/02/2015'</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t>Hamima</t>
+  </si>
+  <si>
+    <t>Nilam</t>
+  </si>
+  <si>
+    <t>Ghaliyati</t>
+  </si>
+  <si>
+    <t>Zelaya</t>
+  </si>
+  <si>
+    <t>Vivi</t>
+  </si>
+  <si>
+    <t>Sadina</t>
+  </si>
+  <si>
+    <t>Yunita</t>
+  </si>
+  <si>
+    <t>Suci</t>
+  </si>
+  <si>
+    <t>Zulaikha</t>
+  </si>
+  <si>
+    <t>Ophelia</t>
+  </si>
+  <si>
+    <t>Shania</t>
+  </si>
+  <si>
+    <t>Karimah</t>
+  </si>
+  <si>
+    <t>Gina</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Dewi</t>
+  </si>
+  <si>
+    <t>Widya</t>
+  </si>
+  <si>
+    <t>Vanesa</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Janet</t>
+  </si>
+  <si>
+    <t>Oliva</t>
+  </si>
+  <si>
+    <t>Gasti</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Lidya</t>
+  </si>
+  <si>
+    <t>oanf</t>
+  </si>
+  <si>
+    <t>polif</t>
+  </si>
+  <si>
+    <t>olive</t>
+  </si>
+  <si>
+    <t>Imam</t>
+  </si>
+  <si>
+    <t>Kambali</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Purwanto</t>
+  </si>
+  <si>
+    <t>Artawan</t>
+  </si>
+  <si>
+    <t>Tedi</t>
+  </si>
+  <si>
+    <t>Ajimat</t>
+  </si>
+  <si>
+    <t>Surya</t>
+  </si>
+  <si>
+    <t>Jarwadi</t>
+  </si>
+  <si>
+    <t>Damu</t>
+  </si>
+  <si>
+    <t>Ulva</t>
+  </si>
+  <si>
+    <t>Ida</t>
+  </si>
+  <si>
+    <t>Ellis</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Almira</t>
+  </si>
+  <si>
+    <t>Betania</t>
+  </si>
+  <si>
+    <t>Elma</t>
+  </si>
+  <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Yulia</t>
+  </si>
+  <si>
+    <t>Ina</t>
+  </si>
+  <si>
+    <t>Kamal</t>
+  </si>
+  <si>
+    <t>Candrakanta</t>
+  </si>
+  <si>
+    <t>Aswani</t>
+  </si>
+  <si>
+    <t>Kardi</t>
+  </si>
+  <si>
+    <t>Balangga</t>
+  </si>
+  <si>
+    <t>Danu</t>
+  </si>
+  <si>
+    <t>Jarwa</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Hardi</t>
+  </si>
+  <si>
+    <t>Langgeng</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>Ilsa</t>
+  </si>
+  <si>
+    <t>Mala</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>Usyi</t>
+  </si>
+  <si>
+    <t>Tira</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Ulya</t>
+  </si>
+  <si>
+    <t>Gatra</t>
+  </si>
+  <si>
+    <t>Eka</t>
+  </si>
+  <si>
+    <t>Gangsar</t>
+  </si>
+  <si>
+    <t>Prima</t>
+  </si>
+  <si>
+    <t>Rahman</t>
+  </si>
+  <si>
+    <t>Edi</t>
+  </si>
+  <si>
+    <t>Labuh</t>
+  </si>
+  <si>
+    <t>Asirwada</t>
+  </si>
+  <si>
+    <t>Lutfan</t>
+  </si>
+  <si>
+    <t>Estiono</t>
+  </si>
+  <si>
+    <t>Kamaria</t>
+  </si>
+  <si>
+    <t>Ciaobella</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Hafshah</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Septi</t>
+  </si>
+  <si>
+    <t>Tiara</t>
+  </si>
+  <si>
+    <t>Tantri</t>
+  </si>
+  <si>
+    <t>Taufik</t>
+  </si>
+  <si>
+    <t>Atmaja</t>
+  </si>
+  <si>
+    <t>Galak</t>
+  </si>
+  <si>
+    <t>Kemal</t>
+  </si>
+  <si>
+    <t>Gading</t>
+  </si>
+  <si>
+    <t>Teddy</t>
+  </si>
+  <si>
+    <t>Ajiman</t>
+  </si>
+  <si>
+    <t>Ega</t>
+  </si>
+  <si>
+    <t>Muni</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Syahrini</t>
+  </si>
+  <si>
+    <t>Indah</t>
+  </si>
+  <si>
+    <t>Sakura</t>
+  </si>
+  <si>
+    <t>Nadine</t>
+  </si>
+  <si>
+    <t>Jasmin</t>
+  </si>
+  <si>
+    <t>Gawati</t>
+  </si>
+  <si>
+    <t>Melinda</t>
+  </si>
+  <si>
+    <t>Naradi</t>
+  </si>
+  <si>
+    <t>Putu</t>
+  </si>
+  <si>
+    <t>Galih</t>
+  </si>
+  <si>
+    <t>Irnanto</t>
+  </si>
+  <si>
+    <t>Raden</t>
+  </si>
+  <si>
+    <t>Kajen</t>
+  </si>
+  <si>
+    <t>Mursinin</t>
+  </si>
+  <si>
+    <t>Lukita</t>
+  </si>
+  <si>
+    <t>Indra</t>
+  </si>
+  <si>
+    <t>Diah</t>
+  </si>
+  <si>
+    <t>Lala</t>
+  </si>
+  <si>
+    <t>Amalia</t>
+  </si>
+  <si>
+    <t>Dina</t>
+  </si>
+  <si>
+    <t>Raisa</t>
+  </si>
+  <si>
+    <t>Maryadi</t>
+  </si>
+  <si>
+    <t>Opan</t>
+  </si>
+  <si>
+    <t>Margana</t>
+  </si>
+  <si>
+    <t>Sabri</t>
+  </si>
+  <si>
+    <t>Kunthara</t>
+  </si>
+  <si>
+    <t>Salman</t>
+  </si>
+  <si>
+    <t>Bala</t>
+  </si>
+  <si>
+    <t>Rendy</t>
+  </si>
+  <si>
+    <t>Opung</t>
+  </si>
+  <si>
+    <t>Laswi</t>
+  </si>
+  <si>
+    <t>Juli</t>
+  </si>
+  <si>
+    <t>Sari</t>
+  </si>
+  <si>
+    <t>Belinda</t>
+  </si>
+  <si>
+    <t>Faizah</t>
+  </si>
+  <si>
+    <t>Zulfa</t>
+  </si>
+  <si>
+    <t>Siti</t>
+  </si>
+  <si>
+    <t>Nabila</t>
+  </si>
+  <si>
+    <t>Kania</t>
+  </si>
+  <si>
+    <t>Genta</t>
+  </si>
+  <si>
+    <t>Fathonah</t>
+  </si>
+  <si>
+    <t>Ganjaran</t>
+  </si>
+  <si>
+    <t>Mustika</t>
+  </si>
+  <si>
+    <t>Cakrawala</t>
+  </si>
+  <si>
+    <t>Jarwi</t>
+  </si>
+  <si>
+    <t>Dariati</t>
+  </si>
+  <si>
+    <t>Cemani</t>
+  </si>
+  <si>
+    <t>Dwi</t>
+  </si>
+  <si>
+    <t>Bagiya</t>
+  </si>
+  <si>
+    <t>Nasab</t>
+  </si>
+  <si>
+    <t>Gambira</t>
+  </si>
+  <si>
+    <t>Dinda</t>
+  </si>
+  <si>
+    <t>Intan</t>
+  </si>
+  <si>
+    <t>Tania</t>
+  </si>
+  <si>
+    <t>Ayu</t>
+  </si>
+  <si>
+    <t>Hani</t>
+  </si>
+  <si>
+    <t>Laras</t>
+  </si>
+  <si>
+    <t>Kartika</t>
+  </si>
+  <si>
+    <t>Keisha</t>
+  </si>
+  <si>
+    <t>Jaka</t>
+  </si>
+  <si>
+    <t>Samsul</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Warsita</t>
+  </si>
+  <si>
+    <t>Dodo</t>
+  </si>
+  <si>
+    <t>Harsana</t>
+  </si>
+  <si>
+    <t>Anggabaya</t>
+  </si>
+  <si>
+    <t>Darijan</t>
+  </si>
+  <si>
+    <t>Balijan</t>
+  </si>
+  <si>
+    <t>Restu</t>
+  </si>
+  <si>
+    <t>Dalima</t>
+  </si>
+  <si>
+    <t>Rina</t>
+  </si>
+  <si>
+    <t>Paulin</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Farhunnisa</t>
+  </si>
+  <si>
+    <t>Qori</t>
+  </si>
+  <si>
+    <t>Cengkal</t>
+  </si>
+  <si>
+    <t>Olga</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Unjani</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>503202307040002</t>
+  </si>
+  <si>
+    <t>503202307040003</t>
+  </si>
+  <si>
+    <t>503202307040004</t>
+  </si>
+  <si>
+    <t>503202307040005</t>
+  </si>
+  <si>
+    <t>503202307040006</t>
+  </si>
+  <si>
+    <t>503202307040008</t>
+  </si>
+  <si>
+    <t>503202307040009</t>
+  </si>
+  <si>
+    <t>503202307040010</t>
+  </si>
+  <si>
+    <t>503202307040011</t>
+  </si>
+  <si>
+    <t>503202307040012</t>
+  </si>
+  <si>
+    <t>503202307040013</t>
+  </si>
+  <si>
+    <t>503202307040014</t>
+  </si>
+  <si>
+    <t>503202307040015</t>
+  </si>
+  <si>
+    <t>503202307040016</t>
+  </si>
+  <si>
+    <t>503202307040017</t>
+  </si>
+  <si>
+    <t>503202307040018</t>
+  </si>
+  <si>
+    <t>503202307040019</t>
+  </si>
+  <si>
+    <t>503202307040020</t>
+  </si>
+  <si>
+    <t>503202307040021</t>
+  </si>
+  <si>
+    <t>503202307040022</t>
+  </si>
+  <si>
+    <t>503202307040023</t>
+  </si>
+  <si>
+    <t>503202307040024</t>
+  </si>
+  <si>
+    <t>503202307040025</t>
+  </si>
+  <si>
+    <t>503202307040026</t>
+  </si>
+  <si>
+    <t>503202307040027</t>
+  </si>
+  <si>
+    <t>503202307040028</t>
+  </si>
+  <si>
+    <t>503202307040029</t>
+  </si>
+  <si>
+    <t>503202307040030</t>
+  </si>
+  <si>
+    <t>503202307040031</t>
+  </si>
+  <si>
+    <t>503202307040032</t>
+  </si>
+  <si>
+    <t>503202307040033</t>
+  </si>
+  <si>
+    <t>503202307040034</t>
+  </si>
+  <si>
+    <t>503202307040035</t>
+  </si>
+  <si>
+    <t>503202307040036</t>
+  </si>
+  <si>
+    <t>503202307040037</t>
+  </si>
+  <si>
+    <t>503202307040039</t>
+  </si>
+  <si>
+    <t>503202307040040</t>
+  </si>
+  <si>
+    <t>503202307040041</t>
+  </si>
+  <si>
+    <t>503202307040038</t>
+  </si>
+  <si>
+    <t>NSP-01-01-044</t>
+  </si>
+  <si>
+    <t>NSP-01-01-045</t>
+  </si>
+  <si>
+    <t>NSP-01-01-046</t>
+  </si>
+  <si>
+    <t>NSP-01-01-047</t>
+  </si>
+  <si>
+    <t>NSP-01-01-048</t>
+  </si>
+  <si>
+    <t>NSP-01-01-049</t>
+  </si>
+  <si>
+    <t>NSP-01-01-050</t>
+  </si>
+  <si>
+    <t>NSP-01-01-051</t>
+  </si>
+  <si>
+    <t>NSP-01-01-052</t>
+  </si>
+  <si>
+    <t>NSP-01-01-053</t>
+  </si>
+  <si>
+    <t>NSP-01-01-054</t>
+  </si>
+  <si>
+    <t>NSP-01-01-055</t>
+  </si>
+  <si>
+    <t>NSP-01-01-056</t>
+  </si>
+  <si>
+    <t>NSP-01-01-057</t>
+  </si>
+  <si>
+    <t>NSP-01-01-058</t>
+  </si>
+  <si>
+    <t>NSP-01-01-059</t>
+  </si>
+  <si>
+    <t>NSP-01-01-060</t>
+  </si>
+  <si>
+    <t>NSP-01-01-061</t>
+  </si>
+  <si>
+    <t>NSP-01-01-062</t>
+  </si>
+  <si>
+    <t>NSP-01-01-063</t>
+  </si>
+  <si>
+    <t>NSP-01-01-064</t>
+  </si>
+  <si>
+    <t>NSP-01-01-065</t>
+  </si>
+  <si>
+    <t>NSP-01-01-066</t>
+  </si>
+  <si>
+    <t>NSP-01-01-067</t>
+  </si>
+  <si>
+    <t>NSP-01-01-068</t>
+  </si>
+  <si>
+    <t>NSP-01-01-069</t>
+  </si>
+  <si>
+    <t>NSP-01-01-070</t>
+  </si>
+  <si>
+    <t>Npts/049</t>
+  </si>
+  <si>
+    <t>Npts/050</t>
+  </si>
+  <si>
+    <t>Npts/051</t>
+  </si>
+  <si>
+    <t>Npts/052</t>
+  </si>
+  <si>
+    <t>Npts/053</t>
+  </si>
+  <si>
+    <t>Npts/054</t>
+  </si>
+  <si>
+    <t>Npts/055</t>
+  </si>
+  <si>
+    <t>Npts/056</t>
+  </si>
+  <si>
+    <t>Npts/057</t>
+  </si>
+  <si>
+    <t>Npts/058</t>
+  </si>
+  <si>
+    <t>Npts/059</t>
+  </si>
+  <si>
+    <t>Npts/060</t>
+  </si>
+  <si>
+    <t>Npts/061</t>
+  </si>
+  <si>
+    <t>Npts/062</t>
+  </si>
+  <si>
+    <t>Npts/063</t>
+  </si>
+  <si>
+    <t>Npts/064</t>
+  </si>
+  <si>
+    <t>Npts/065</t>
+  </si>
+  <si>
+    <t>Npts/066</t>
+  </si>
+  <si>
+    <t>Npts/067</t>
+  </si>
+  <si>
+    <t>Npts/068</t>
+  </si>
+  <si>
+    <t>Npts/069</t>
+  </si>
+  <si>
+    <t>Npts/070</t>
+  </si>
+  <si>
+    <t>503202307040007</t>
   </si>
 </sst>
 </file>
@@ -896,9 +1688,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF606266"/>
-      <name val="Roboto"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -919,7 +1712,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -994,6 +1787,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1057,12 +1865,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1368,15 +2174,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
@@ -1473,20 +2279,20 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
-        <v>278</v>
+      <c r="A2" s="21" t="s">
+        <v>455</v>
       </c>
       <c r="B2" s="2">
-        <v>144202303160001</v>
+        <v>144202303160031</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="5">
-        <v>8</v>
+        <v>277</v>
+      </c>
+      <c r="E2" s="11">
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>166</v>
@@ -1507,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>77</v>
@@ -1516,7 +2322,7 @@
         <v>170</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>172</v>
@@ -1540,24 +2346,24 @@
         <v>77</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="21" t="s">
-        <v>279</v>
+        <v>456</v>
       </c>
       <c r="B3" s="2">
-        <v>144202303160002</v>
+        <v>144202303160032</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="5">
-        <v>9</v>
+        <v>277</v>
+      </c>
+      <c r="E3" s="11">
+        <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>178</v>
@@ -1578,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>89</v>
@@ -1587,7 +2393,7 @@
         <v>182</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>276</v>
+        <v>196</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>184</v>
@@ -1611,10 +2417,2595 @@
         <v>89</v>
       </c>
       <c r="W3" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4" s="2">
+        <v>144202303160033</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>277</v>
       </c>
+      <c r="E4" s="11">
+        <v>10</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="B5" s="2">
+        <v>144202303160034</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="5">
+        <v>15</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="B6" s="2">
+        <v>144202303160035</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="5">
+        <v>20</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="B7" s="2">
+        <v>144202303160036</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="B8" s="2">
+        <v>144202303160037</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="5">
+        <v>20</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="B9" s="2">
+        <v>144202303160038</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9" s="5">
+        <v>20</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="B10" s="2">
+        <v>144202303160039</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="5">
+        <v>20</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11" s="2">
+        <v>144202303160040</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" s="5">
+        <v>20</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="B12" s="2">
+        <v>144202303160041</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" s="5">
+        <v>20</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="B13" s="2">
+        <v>144202303160042</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="5">
+        <v>20</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="B14" s="2">
+        <v>144202303160043</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E14" s="5">
+        <v>20</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="B15" s="2">
+        <v>144202303160044</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="B16" s="2">
+        <v>144202303160045</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E16" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="B17" s="2">
+        <v>144202303160046</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E17" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="B18" s="2">
+        <v>144202303160047</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E18" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="B19" s="2">
+        <v>144202303160048</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E19" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="B20" s="2">
+        <v>144202303160049</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E20" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="B21" s="2">
+        <v>144202303160050</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E21" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="U21" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="B22" s="2">
+        <v>144202303160051</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="B23" s="2">
+        <v>144202303160052</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E23" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="B24" s="2">
+        <v>144202303160053</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E24" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="B25" s="2">
+        <v>144202303160054</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E25" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="U25" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="B26" s="2">
+        <v>144202303160055</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E26" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="U26" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="V26" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="B27" s="2">
+        <v>144202303160056</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E27" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="U27" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="V27" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="B28" s="2">
+        <v>144202303160057</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E28" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="U28" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="B29" s="2">
+        <v>144202303160058</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E29" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="U29" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="B30" s="2">
+        <v>144202303160059</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E30" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="U30" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="V30" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="B31" s="2">
+        <v>144202303160060</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E31" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="U31" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="V31" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="B32" s="2">
+        <v>144202303160061</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E32" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="P32" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="R32" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="U32" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="B33" s="2">
+        <v>144202303160062</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="U33" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="V33" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="B34" s="2">
+        <v>144202303160063</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E34" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="T34" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="U34" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="B35" s="2">
+        <v>144202303160064</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E35" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q35" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="U35" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="V35" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="B36" s="2">
+        <v>144202303160065</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E36" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="U36" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="B37" s="2">
+        <v>144202303160066</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E37" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q37" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="U37" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="B38" s="2">
+        <v>144202303160067</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E38" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="R38" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="S38" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="T38" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="U38" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="B39" s="2">
+        <v>144202303160068</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q39" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="R39" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="S39" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="T39" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="U39" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="V39" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="B40" s="2">
+        <v>144202303160069</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E40" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q40" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="S40" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="T40" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="U40" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="V40" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="B41" s="2">
+        <v>144202303160070</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E41" s="11">
+        <v>30.238095238095202</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="P41" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q41" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="R41" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="T41" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="U41" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="V41" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SDP/Filexel/RegSelenium.xlsx
+++ b/SDP/Filexel/RegSelenium.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\SDP\Filexel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D89EEFF-FE09-4CFA-A398-4CC015897453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="RegSelenium" sheetId="1" r:id="rId1"/>
-    <sheet name="wbp" sheetId="2" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="RegSelenium"/>
+    <sheet r:id="rId2" sheetId="2" name="wbp"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="537">
   <si>
     <t>NSP-01-01-010</t>
   </si>
@@ -833,10 +827,7 @@
     <t>namawbp</t>
   </si>
   <si>
-    <t>Undang-Undang Nomor 1 Tahun 1958</t>
-  </si>
-  <si>
-    <t>HUMAIRA</t>
+    <t>13/02/2014'</t>
   </si>
   <si>
     <t>Undang-Undang Nomor 1 Tahun 1959</t>
@@ -845,820 +836,803 @@
     <t>R. VICKY USAMAH</t>
   </si>
   <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t>Imam</t>
+  </si>
+  <si>
+    <t>Hardi</t>
+  </si>
+  <si>
+    <t>Elma</t>
+  </si>
+  <si>
+    <t>Raden</t>
+  </si>
+  <si>
+    <t>Belinda</t>
+  </si>
+  <si>
+    <t>Jaka</t>
+  </si>
+  <si>
+    <t>Hamima</t>
+  </si>
+  <si>
+    <t>Kambali</t>
+  </si>
+  <si>
+    <t>Langgeng</t>
+  </si>
+  <si>
+    <t>Septi</t>
+  </si>
+  <si>
+    <t>Kajen</t>
+  </si>
+  <si>
+    <t>Faizah</t>
+  </si>
+  <si>
+    <t>Samsul</t>
+  </si>
+  <si>
+    <t>13/02/2015'</t>
+  </si>
+  <si>
+    <t>Nilam</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>Tiara</t>
+  </si>
+  <si>
+    <t>Mursinin</t>
+  </si>
+  <si>
+    <t>Zulfa</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>503202307040007</t>
+  </si>
+  <si>
     <t>13/02/2011'</t>
   </si>
   <si>
+    <t>Ghaliyati</t>
+  </si>
+  <si>
+    <t>Purwanto</t>
+  </si>
+  <si>
+    <t>Ilsa</t>
+  </si>
+  <si>
+    <t>Tantri</t>
+  </si>
+  <si>
+    <t>Lukita</t>
+  </si>
+  <si>
+    <t>Siti</t>
+  </si>
+  <si>
+    <t>Warsita</t>
+  </si>
+  <si>
+    <t>503202307040008</t>
+  </si>
+  <si>
     <t>13/02/2012'</t>
   </si>
   <si>
+    <t>Zelaya</t>
+  </si>
+  <si>
+    <t>Artawan</t>
+  </si>
+  <si>
+    <t>Mala</t>
+  </si>
+  <si>
+    <t>Taufik</t>
+  </si>
+  <si>
+    <t>Kardi</t>
+  </si>
+  <si>
+    <t>Nabila</t>
+  </si>
+  <si>
+    <t>Dodo</t>
+  </si>
+  <si>
+    <t>503202307040009</t>
+  </si>
+  <si>
     <t>13/02/2013'</t>
   </si>
   <si>
-    <t>13/02/2014'</t>
-  </si>
-  <si>
-    <t>13/02/2015'</t>
-  </si>
-  <si>
-    <t>Sabrina</t>
-  </si>
-  <si>
-    <t>Hamima</t>
-  </si>
-  <si>
-    <t>Nilam</t>
-  </si>
-  <si>
-    <t>Ghaliyati</t>
-  </si>
-  <si>
-    <t>Zelaya</t>
-  </si>
-  <si>
     <t>Vivi</t>
   </si>
   <si>
+    <t>Tedi</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Atmaja</t>
+  </si>
+  <si>
+    <t>Indra</t>
+  </si>
+  <si>
+    <t>Kania</t>
+  </si>
+  <si>
+    <t>Sabri</t>
+  </si>
+  <si>
+    <t>503202307040010</t>
+  </si>
+  <si>
     <t>Sadina</t>
   </si>
   <si>
+    <t>Ajimat</t>
+  </si>
+  <si>
+    <t>Almira</t>
+  </si>
+  <si>
+    <t>Galak</t>
+  </si>
+  <si>
+    <t>Diah</t>
+  </si>
+  <si>
+    <t>Genta</t>
+  </si>
+  <si>
+    <t>Harsana</t>
+  </si>
+  <si>
+    <t>503202307040011</t>
+  </si>
+  <si>
     <t>Yunita</t>
   </si>
   <si>
+    <t>Surya</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>Kemal</t>
+  </si>
+  <si>
+    <t>Lala</t>
+  </si>
+  <si>
+    <t>Fathonah</t>
+  </si>
+  <si>
+    <t>Anggabaya</t>
+  </si>
+  <si>
+    <t>503202307040012</t>
+  </si>
+  <si>
     <t>Suci</t>
   </si>
   <si>
+    <t>Jarwadi</t>
+  </si>
+  <si>
+    <t>Usyi</t>
+  </si>
+  <si>
+    <t>Gading</t>
+  </si>
+  <si>
+    <t>Amalia</t>
+  </si>
+  <si>
+    <t>Ganjaran</t>
+  </si>
+  <si>
+    <t>Darijan</t>
+  </si>
+  <si>
+    <t>503202307040013</t>
+  </si>
+  <si>
     <t>Zulaikha</t>
   </si>
   <si>
+    <t>Damu</t>
+  </si>
+  <si>
+    <t>Tira</t>
+  </si>
+  <si>
+    <t>Teddy</t>
+  </si>
+  <si>
+    <t>Dina</t>
+  </si>
+  <si>
+    <t>Mustika</t>
+  </si>
+  <si>
+    <t>Balijan</t>
+  </si>
+  <si>
+    <t>503202307040014</t>
+  </si>
+  <si>
     <t>Ophelia</t>
   </si>
   <si>
+    <t>Ulva</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Ajiman</t>
+  </si>
+  <si>
+    <t>Cakrawala</t>
+  </si>
+  <si>
+    <t>Restu</t>
+  </si>
+  <si>
+    <t>503202307040015</t>
+  </si>
+  <si>
+    <t>NSP-01-01-044</t>
+  </si>
+  <si>
     <t>Shania</t>
   </si>
   <si>
+    <t>Ida</t>
+  </si>
+  <si>
+    <t>Ulya</t>
+  </si>
+  <si>
+    <t>Ega</t>
+  </si>
+  <si>
+    <t>Hafshah</t>
+  </si>
+  <si>
+    <t>Jarwi</t>
+  </si>
+  <si>
+    <t>503202307040016</t>
+  </si>
+  <si>
+    <t>NSP-01-01-045</t>
+  </si>
+  <si>
     <t>Karimah</t>
   </si>
   <si>
+    <t>Ellis</t>
+  </si>
+  <si>
+    <t>Gatra</t>
+  </si>
+  <si>
+    <t>Muni</t>
+  </si>
+  <si>
+    <t>Dariati</t>
+  </si>
+  <si>
+    <t>Dalima</t>
+  </si>
+  <si>
+    <t>503202307040017</t>
+  </si>
+  <si>
+    <t>NSP-01-01-046</t>
+  </si>
+  <si>
     <t>Gina</t>
   </si>
   <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Eka</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Dewi</t>
+  </si>
+  <si>
+    <t>Cemani</t>
+  </si>
+  <si>
+    <t>Rina</t>
+  </si>
+  <si>
+    <t>503202307040018</t>
+  </si>
+  <si>
+    <t>NSP-01-01-047</t>
+  </si>
+  <si>
     <t>Bella</t>
   </si>
   <si>
+    <t>Gangsar</t>
+  </si>
+  <si>
+    <t>Syahrini</t>
+  </si>
+  <si>
+    <t>Dwi</t>
+  </si>
+  <si>
+    <t>Paulin</t>
+  </si>
+  <si>
+    <t>503202307040019</t>
+  </si>
+  <si>
+    <t>NSP-01-01-048</t>
+  </si>
+  <si>
     <t>Olivia</t>
   </si>
   <si>
-    <t>Dewi</t>
+    <t>Betania</t>
+  </si>
+  <si>
+    <t>Prima</t>
+  </si>
+  <si>
+    <t>Indah</t>
+  </si>
+  <si>
+    <t>Raisa</t>
+  </si>
+  <si>
+    <t>Bagiya</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>503202307040020</t>
+  </si>
+  <si>
+    <t>NSP-01-01-049</t>
+  </si>
+  <si>
+    <t>Npts/049</t>
+  </si>
+  <si>
+    <t>Rahman</t>
+  </si>
+  <si>
+    <t>Sakura</t>
+  </si>
+  <si>
+    <t>Maryadi</t>
+  </si>
+  <si>
+    <t>Nasab</t>
+  </si>
+  <si>
+    <t>503202307040021</t>
+  </si>
+  <si>
+    <t>NSP-01-01-050</t>
   </si>
   <si>
     <t>Widya</t>
   </si>
   <si>
+    <t>Npts/050</t>
+  </si>
+  <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Edi</t>
+  </si>
+  <si>
+    <t>Nadine</t>
+  </si>
+  <si>
+    <t>Opan</t>
+  </si>
+  <si>
+    <t>Gambira</t>
+  </si>
+  <si>
+    <t>Farhunnisa</t>
+  </si>
+  <si>
+    <t>503202307040022</t>
+  </si>
+  <si>
+    <t>NSP-01-01-051</t>
+  </si>
+  <si>
     <t>Vanesa</t>
   </si>
   <si>
+    <t>Npts/051</t>
+  </si>
+  <si>
+    <t>Yulia</t>
+  </si>
+  <si>
+    <t>Labuh</t>
+  </si>
+  <si>
+    <t>Jasmin</t>
+  </si>
+  <si>
+    <t>Margana</t>
+  </si>
+  <si>
+    <t>Dinda</t>
+  </si>
+  <si>
+    <t>503202307040023</t>
+  </si>
+  <si>
+    <t>NSP-01-01-052</t>
+  </si>
+  <si>
     <t>Eva</t>
   </si>
   <si>
+    <t>Npts/052</t>
+  </si>
+  <si>
+    <t>Ina</t>
+  </si>
+  <si>
+    <t>Asirwada</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Intan</t>
+  </si>
+  <si>
+    <t>Qori</t>
+  </si>
+  <si>
+    <t>503202307040024</t>
+  </si>
+  <si>
+    <t>NSP-01-01-053</t>
+  </si>
+  <si>
     <t>Janet</t>
   </si>
   <si>
+    <t>Npts/053</t>
+  </si>
+  <si>
+    <t>Kamal</t>
+  </si>
+  <si>
+    <t>Lutfan</t>
+  </si>
+  <si>
+    <t>Gawati</t>
+  </si>
+  <si>
+    <t>Kunthara</t>
+  </si>
+  <si>
+    <t>Tania</t>
+  </si>
+  <si>
+    <t>Cengkal</t>
+  </si>
+  <si>
+    <t>503202307040025</t>
+  </si>
+  <si>
+    <t>NSP-01-01-054</t>
+  </si>
+  <si>
     <t>Oliva</t>
   </si>
   <si>
+    <t>Npts/054</t>
+  </si>
+  <si>
+    <t>Candrakanta</t>
+  </si>
+  <si>
+    <t>Estiono</t>
+  </si>
+  <si>
+    <t>Melinda</t>
+  </si>
+  <si>
+    <t>Salman</t>
+  </si>
+  <si>
+    <t>Ayu</t>
+  </si>
+  <si>
+    <t>Olga</t>
+  </si>
+  <si>
+    <t>503202307040026</t>
+  </si>
+  <si>
+    <t>NSP-01-01-055</t>
+  </si>
+  <si>
     <t>Gasti</t>
   </si>
   <si>
+    <t>Npts/055</t>
+  </si>
+  <si>
+    <t>Aswani</t>
+  </si>
+  <si>
+    <t>Bala</t>
+  </si>
+  <si>
+    <t>Hani</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>503202307040027</t>
+  </si>
+  <si>
+    <t>NSP-01-01-056</t>
+  </si>
+  <si>
     <t>Jessica</t>
   </si>
   <si>
+    <t>Npts/056</t>
+  </si>
+  <si>
+    <t>Kamaria</t>
+  </si>
+  <si>
+    <t>Rendy</t>
+  </si>
+  <si>
+    <t>Laras</t>
+  </si>
+  <si>
+    <t>503202307040028</t>
+  </si>
+  <si>
+    <t>NSP-01-01-057</t>
+  </si>
+  <si>
     <t>Lidya</t>
   </si>
   <si>
+    <t>Npts/057</t>
+  </si>
+  <si>
+    <t>Balangga</t>
+  </si>
+  <si>
+    <t>Ciaobella</t>
+  </si>
+  <si>
+    <t>Naradi</t>
+  </si>
+  <si>
+    <t>Opung</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>503202307040029</t>
+  </si>
+  <si>
+    <t>NSP-01-01-058</t>
+  </si>
+  <si>
     <t>oanf</t>
   </si>
   <si>
+    <t>Npts/058</t>
+  </si>
+  <si>
+    <t>Danu</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Putu</t>
+  </si>
+  <si>
+    <t>Laswi</t>
+  </si>
+  <si>
+    <t>Kartika</t>
+  </si>
+  <si>
+    <t>Unjani</t>
+  </si>
+  <si>
+    <t>503202307040030</t>
+  </si>
+  <si>
+    <t>NSP-01-01-059</t>
+  </si>
+  <si>
     <t>polif</t>
   </si>
   <si>
+    <t>Npts/059</t>
+  </si>
+  <si>
+    <t>Jarwa</t>
+  </si>
+  <si>
+    <t>Galih</t>
+  </si>
+  <si>
+    <t>Juli</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>503202307040031</t>
+  </si>
+  <si>
+    <t>NSP-01-01-060</t>
+  </si>
+  <si>
     <t>olive</t>
   </si>
   <si>
-    <t>Imam</t>
-  </si>
-  <si>
-    <t>Kambali</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Purwanto</t>
-  </si>
-  <si>
-    <t>Artawan</t>
-  </si>
-  <si>
-    <t>Tedi</t>
-  </si>
-  <si>
-    <t>Ajimat</t>
-  </si>
-  <si>
-    <t>Surya</t>
-  </si>
-  <si>
-    <t>Jarwadi</t>
-  </si>
-  <si>
-    <t>Damu</t>
-  </si>
-  <si>
-    <t>Ulva</t>
-  </si>
-  <si>
-    <t>Ida</t>
-  </si>
-  <si>
-    <t>Ellis</t>
-  </si>
-  <si>
-    <t>Aurora</t>
-  </si>
-  <si>
-    <t>Almira</t>
-  </si>
-  <si>
-    <t>Betania</t>
-  </si>
-  <si>
-    <t>Elma</t>
-  </si>
-  <si>
-    <t>Anita</t>
-  </si>
-  <si>
-    <t>Yulia</t>
-  </si>
-  <si>
-    <t>Ina</t>
-  </si>
-  <si>
-    <t>Kamal</t>
-  </si>
-  <si>
-    <t>Candrakanta</t>
-  </si>
-  <si>
-    <t>Aswani</t>
-  </si>
-  <si>
-    <t>Kardi</t>
-  </si>
-  <si>
-    <t>Balangga</t>
-  </si>
-  <si>
-    <t>Danu</t>
-  </si>
-  <si>
-    <t>Jarwa</t>
+    <t>Npts/060</t>
   </si>
   <si>
     <t>Simon</t>
   </si>
   <si>
-    <t>Hardi</t>
-  </si>
-  <si>
-    <t>Langgeng</t>
-  </si>
-  <si>
-    <t>Nadia</t>
-  </si>
-  <si>
-    <t>Ilsa</t>
-  </si>
-  <si>
-    <t>Mala</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Carla</t>
-  </si>
-  <si>
-    <t>Usyi</t>
-  </si>
-  <si>
-    <t>Tira</t>
-  </si>
-  <si>
-    <t>Queen</t>
-  </si>
-  <si>
-    <t>Ulya</t>
-  </si>
-  <si>
-    <t>Gatra</t>
-  </si>
-  <si>
-    <t>Eka</t>
-  </si>
-  <si>
-    <t>Gangsar</t>
-  </si>
-  <si>
-    <t>Prima</t>
-  </si>
-  <si>
-    <t>Rahman</t>
-  </si>
-  <si>
-    <t>Edi</t>
-  </si>
-  <si>
-    <t>Labuh</t>
-  </si>
-  <si>
-    <t>Asirwada</t>
-  </si>
-  <si>
-    <t>Lutfan</t>
-  </si>
-  <si>
-    <t>Estiono</t>
-  </si>
-  <si>
-    <t>Kamaria</t>
-  </si>
-  <si>
-    <t>Ciaobella</t>
-  </si>
-  <si>
-    <t>Eli</t>
-  </si>
-  <si>
-    <t>Hafshah</t>
-  </si>
-  <si>
-    <t>Rachel</t>
-  </si>
-  <si>
-    <t>Septi</t>
-  </si>
-  <si>
-    <t>Tiara</t>
-  </si>
-  <si>
-    <t>Tantri</t>
-  </si>
-  <si>
-    <t>Taufik</t>
-  </si>
-  <si>
-    <t>Atmaja</t>
-  </si>
-  <si>
-    <t>Galak</t>
-  </si>
-  <si>
-    <t>Kemal</t>
-  </si>
-  <si>
-    <t>Gading</t>
-  </si>
-  <si>
-    <t>Teddy</t>
-  </si>
-  <si>
-    <t>Ajiman</t>
-  </si>
-  <si>
-    <t>Ega</t>
-  </si>
-  <si>
-    <t>Muni</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Syahrini</t>
-  </si>
-  <si>
-    <t>Indah</t>
-  </si>
-  <si>
-    <t>Sakura</t>
-  </si>
-  <si>
-    <t>Nadine</t>
-  </si>
-  <si>
-    <t>Jasmin</t>
-  </si>
-  <si>
-    <t>Gawati</t>
-  </si>
-  <si>
-    <t>Melinda</t>
-  </si>
-  <si>
-    <t>Naradi</t>
-  </si>
-  <si>
-    <t>Putu</t>
-  </si>
-  <si>
-    <t>Galih</t>
-  </si>
-  <si>
     <t>Irnanto</t>
   </si>
   <si>
-    <t>Raden</t>
-  </si>
-  <si>
-    <t>Kajen</t>
-  </si>
-  <si>
-    <t>Mursinin</t>
-  </si>
-  <si>
-    <t>Lukita</t>
-  </si>
-  <si>
-    <t>Indra</t>
-  </si>
-  <si>
-    <t>Diah</t>
-  </si>
-  <si>
-    <t>Lala</t>
-  </si>
-  <si>
-    <t>Amalia</t>
-  </si>
-  <si>
-    <t>Dina</t>
-  </si>
-  <si>
-    <t>Raisa</t>
-  </si>
-  <si>
-    <t>Maryadi</t>
-  </si>
-  <si>
-    <t>Opan</t>
-  </si>
-  <si>
-    <t>Margana</t>
-  </si>
-  <si>
-    <t>Sabri</t>
-  </si>
-  <si>
-    <t>Kunthara</t>
-  </si>
-  <si>
-    <t>Salman</t>
-  </si>
-  <si>
-    <t>Bala</t>
-  </si>
-  <si>
-    <t>Rendy</t>
-  </si>
-  <si>
-    <t>Opung</t>
-  </si>
-  <si>
-    <t>Laswi</t>
-  </si>
-  <si>
-    <t>Juli</t>
-  </si>
-  <si>
     <t>Sari</t>
   </si>
   <si>
-    <t>Belinda</t>
-  </si>
-  <si>
-    <t>Faizah</t>
-  </si>
-  <si>
-    <t>Zulfa</t>
-  </si>
-  <si>
-    <t>Siti</t>
-  </si>
-  <si>
-    <t>Nabila</t>
-  </si>
-  <si>
-    <t>Kania</t>
-  </si>
-  <si>
-    <t>Genta</t>
-  </si>
-  <si>
-    <t>Fathonah</t>
-  </si>
-  <si>
-    <t>Ganjaran</t>
-  </si>
-  <si>
-    <t>Mustika</t>
-  </si>
-  <si>
-    <t>Cakrawala</t>
-  </si>
-  <si>
-    <t>Jarwi</t>
-  </si>
-  <si>
-    <t>Dariati</t>
-  </si>
-  <si>
-    <t>Cemani</t>
-  </si>
-  <si>
-    <t>Dwi</t>
-  </si>
-  <si>
-    <t>Bagiya</t>
-  </si>
-  <si>
-    <t>Nasab</t>
-  </si>
-  <si>
-    <t>Gambira</t>
-  </si>
-  <si>
-    <t>Dinda</t>
-  </si>
-  <si>
-    <t>Intan</t>
-  </si>
-  <si>
-    <t>Tania</t>
-  </si>
-  <si>
-    <t>Ayu</t>
-  </si>
-  <si>
-    <t>Hani</t>
-  </si>
-  <si>
-    <t>Laras</t>
-  </si>
-  <si>
-    <t>Kartika</t>
-  </si>
-  <si>
     <t>Keisha</t>
   </si>
   <si>
-    <t>Jaka</t>
-  </si>
-  <si>
-    <t>Samsul</t>
-  </si>
-  <si>
-    <t>Aditya</t>
-  </si>
-  <si>
-    <t>Warsita</t>
-  </si>
-  <si>
-    <t>Dodo</t>
-  </si>
-  <si>
-    <t>Harsana</t>
-  </si>
-  <si>
-    <t>Anggabaya</t>
-  </si>
-  <si>
-    <t>Darijan</t>
-  </si>
-  <si>
-    <t>Balijan</t>
-  </si>
-  <si>
-    <t>Restu</t>
-  </si>
-  <si>
-    <t>Dalima</t>
-  </si>
-  <si>
-    <t>Rina</t>
-  </si>
-  <si>
-    <t>Paulin</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Farhunnisa</t>
-  </si>
-  <si>
-    <t>Qori</t>
-  </si>
-  <si>
-    <t>Cengkal</t>
-  </si>
-  <si>
-    <t>Olga</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Karen</t>
-  </si>
-  <si>
-    <t>Unjani</t>
-  </si>
-  <si>
-    <t>Tina</t>
-  </si>
-  <si>
-    <t>503202307040002</t>
-  </si>
-  <si>
-    <t>503202307040003</t>
-  </si>
-  <si>
-    <t>503202307040004</t>
-  </si>
-  <si>
-    <t>503202307040005</t>
-  </si>
-  <si>
-    <t>503202307040006</t>
-  </si>
-  <si>
-    <t>503202307040008</t>
-  </si>
-  <si>
-    <t>503202307040009</t>
-  </si>
-  <si>
-    <t>503202307040010</t>
-  </si>
-  <si>
-    <t>503202307040011</t>
-  </si>
-  <si>
-    <t>503202307040012</t>
-  </si>
-  <si>
-    <t>503202307040013</t>
-  </si>
-  <si>
-    <t>503202307040014</t>
-  </si>
-  <si>
-    <t>503202307040015</t>
-  </si>
-  <si>
-    <t>503202307040016</t>
-  </si>
-  <si>
-    <t>503202307040017</t>
-  </si>
-  <si>
-    <t>503202307040018</t>
-  </si>
-  <si>
-    <t>503202307040019</t>
-  </si>
-  <si>
-    <t>503202307040020</t>
-  </si>
-  <si>
-    <t>503202307040021</t>
-  </si>
-  <si>
-    <t>503202307040022</t>
-  </si>
-  <si>
-    <t>503202307040023</t>
-  </si>
-  <si>
-    <t>503202307040024</t>
-  </si>
-  <si>
-    <t>503202307040025</t>
-  </si>
-  <si>
-    <t>503202307040026</t>
-  </si>
-  <si>
-    <t>503202307040027</t>
-  </si>
-  <si>
-    <t>503202307040028</t>
-  </si>
-  <si>
-    <t>503202307040029</t>
-  </si>
-  <si>
-    <t>503202307040030</t>
-  </si>
-  <si>
-    <t>503202307040031</t>
-  </si>
-  <si>
     <t>503202307040032</t>
   </si>
   <si>
+    <t>NSP-01-01-061</t>
+  </si>
+  <si>
+    <t>Npts/061</t>
+  </si>
+  <si>
     <t>503202307040033</t>
   </si>
   <si>
+    <t>NSP-01-01-062</t>
+  </si>
+  <si>
+    <t>Npts/062</t>
+  </si>
+  <si>
     <t>503202307040034</t>
   </si>
   <si>
+    <t>NSP-01-01-063</t>
+  </si>
+  <si>
+    <t>Npts/063</t>
+  </si>
+  <si>
     <t>503202307040035</t>
   </si>
   <si>
+    <t>NSP-01-01-064</t>
+  </si>
+  <si>
+    <t>Npts/064</t>
+  </si>
+  <si>
     <t>503202307040036</t>
   </si>
   <si>
+    <t>NSP-01-01-065</t>
+  </si>
+  <si>
+    <t>Npts/065</t>
+  </si>
+  <si>
     <t>503202307040037</t>
   </si>
   <si>
+    <t>NSP-01-01-066</t>
+  </si>
+  <si>
+    <t>Npts/066</t>
+  </si>
+  <si>
+    <t>503202307040038</t>
+  </si>
+  <si>
+    <t>NSP-01-01-067</t>
+  </si>
+  <si>
+    <t>Npts/067</t>
+  </si>
+  <si>
     <t>503202307040039</t>
   </si>
   <si>
+    <t>NSP-01-01-068</t>
+  </si>
+  <si>
+    <t>Npts/068</t>
+  </si>
+  <si>
     <t>503202307040040</t>
   </si>
   <si>
+    <t>NSP-01-01-069</t>
+  </si>
+  <si>
+    <t>Npts/069</t>
+  </si>
+  <si>
     <t>503202307040041</t>
   </si>
   <si>
-    <t>503202307040038</t>
-  </si>
-  <si>
-    <t>NSP-01-01-044</t>
-  </si>
-  <si>
-    <t>NSP-01-01-045</t>
-  </si>
-  <si>
-    <t>NSP-01-01-046</t>
-  </si>
-  <si>
-    <t>NSP-01-01-047</t>
-  </si>
-  <si>
-    <t>NSP-01-01-048</t>
-  </si>
-  <si>
-    <t>NSP-01-01-049</t>
-  </si>
-  <si>
-    <t>NSP-01-01-050</t>
-  </si>
-  <si>
-    <t>NSP-01-01-051</t>
-  </si>
-  <si>
-    <t>NSP-01-01-052</t>
-  </si>
-  <si>
-    <t>NSP-01-01-053</t>
-  </si>
-  <si>
-    <t>NSP-01-01-054</t>
-  </si>
-  <si>
-    <t>NSP-01-01-055</t>
-  </si>
-  <si>
-    <t>NSP-01-01-056</t>
-  </si>
-  <si>
-    <t>NSP-01-01-057</t>
-  </si>
-  <si>
-    <t>NSP-01-01-058</t>
-  </si>
-  <si>
-    <t>NSP-01-01-059</t>
-  </si>
-  <si>
-    <t>NSP-01-01-060</t>
-  </si>
-  <si>
-    <t>NSP-01-01-061</t>
-  </si>
-  <si>
-    <t>NSP-01-01-062</t>
-  </si>
-  <si>
-    <t>NSP-01-01-063</t>
-  </si>
-  <si>
-    <t>NSP-01-01-064</t>
-  </si>
-  <si>
-    <t>NSP-01-01-065</t>
-  </si>
-  <si>
-    <t>NSP-01-01-066</t>
-  </si>
-  <si>
-    <t>NSP-01-01-067</t>
-  </si>
-  <si>
-    <t>NSP-01-01-068</t>
-  </si>
-  <si>
-    <t>NSP-01-01-069</t>
-  </si>
-  <si>
     <t>NSP-01-01-070</t>
   </si>
   <si>
-    <t>Npts/049</t>
-  </si>
-  <si>
-    <t>Npts/050</t>
-  </si>
-  <si>
-    <t>Npts/051</t>
-  </si>
-  <si>
-    <t>Npts/052</t>
-  </si>
-  <si>
-    <t>Npts/053</t>
-  </si>
-  <si>
-    <t>Npts/054</t>
-  </si>
-  <si>
-    <t>Npts/055</t>
-  </si>
-  <si>
-    <t>Npts/056</t>
-  </si>
-  <si>
-    <t>Npts/057</t>
-  </si>
-  <si>
-    <t>Npts/058</t>
-  </si>
-  <si>
-    <t>Npts/059</t>
-  </si>
-  <si>
-    <t>Npts/060</t>
-  </si>
-  <si>
-    <t>Npts/061</t>
-  </si>
-  <si>
-    <t>Npts/062</t>
-  </si>
-  <si>
-    <t>Npts/063</t>
-  </si>
-  <si>
-    <t>Npts/064</t>
-  </si>
-  <si>
-    <t>Npts/065</t>
-  </si>
-  <si>
-    <t>Npts/066</t>
-  </si>
-  <si>
-    <t>Npts/067</t>
-  </si>
-  <si>
-    <t>Npts/068</t>
-  </si>
-  <si>
-    <t>Npts/069</t>
-  </si>
-  <si>
     <t>Npts/070</t>
-  </si>
-  <si>
-    <t>503202307040007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1676,7 +1650,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF4C4C4C"/>
+      <color rgb="FF4c4c4c"/>
       <name val="Lato"/>
       <family val="2"/>
     </font>
@@ -1688,10 +1662,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1703,12 +1677,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFffc000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -1728,7 +1702,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1737,13 +1711,13 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -1767,7 +1741,7 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -1806,81 +1780,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="25">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1891,10 +1873,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1932,71 +1914,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2024,7 +2006,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -2047,11 +2029,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -2060,13 +2042,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2076,7 +2058,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2085,7 +2067,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2094,7 +2076,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2102,10 +2084,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -2170,44 +2152,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="41" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="33.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="24" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="37.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="37.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="38.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="43.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="40.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="35.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="41.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="41.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="32.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="12" width="39.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="12" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="12" width="31.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="12" width="37.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="12" width="33.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="12" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="12" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="12" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="24" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A1" s="14" t="s">
         <v>247</v>
       </c>
@@ -2278,2020 +2258,2043 @@
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
-        <v>455</v>
-      </c>
-      <c r="B2" s="2">
-        <v>144202303160031</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33" customFormat="1" s="1">
+      <c r="A2" s="19">
+        <v>934202311030010</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="20">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="28.5">
+      <c r="A3" s="19">
+        <v>934202311030011</v>
+      </c>
+      <c r="B3" s="2">
+        <v>144202303160033</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="20">
+        <v>10</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="S3" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="E2" s="11">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="T3" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W3" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="28.5">
+      <c r="A4" s="19">
+        <v>934202311030012</v>
+      </c>
+      <c r="B4" s="2">
+        <v>144202303160034</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="E4" s="5">
+        <v>15</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W4" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="28.5">
+      <c r="A5" s="19">
+        <v>934202311030013</v>
+      </c>
+      <c r="B5" s="2">
+        <v>144202303160035</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" s="6" t="s">
+      <c r="O5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="V5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="W2" s="18" t="s">
-        <v>271</v>
-      </c>
+      <c r="W5" s="22"/>
     </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="21" t="s">
-        <v>456</v>
-      </c>
-      <c r="B3" s="2">
-        <v>144202303160032</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E3" s="11">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="W3" s="18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4" s="2">
-        <v>144202303160033</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E4" s="11">
-        <v>10</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="B5" s="2">
-        <v>144202303160034</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E5" s="5">
-        <v>15</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="21" t="s">
-        <v>459</v>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="28.5">
+      <c r="A6" s="23" t="s">
+        <v>295</v>
       </c>
       <c r="B6" s="2">
-        <v>144202303160035</v>
+        <v>144202303160036</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="E6" s="5">
         <v>20</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>281</v>
+      <c r="F6" s="21" t="s">
+        <v>297</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="T6" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>435</v>
+        <v>210</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="T6" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>303</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="W6" s="22"/>
     </row>
-    <row r="7" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
-        <v>543</v>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="28.5">
+      <c r="A7" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="B7" s="2">
-        <v>144202303160036</v>
+        <v>144202303160037</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="E7" s="5">
         <v>20</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>282</v>
+      <c r="F7" s="21" t="s">
+        <v>306</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="P7" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="S7" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="Q7" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>436</v>
+      <c r="T7" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>312</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="W7" s="22"/>
     </row>
-    <row r="8" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
-        <v>460</v>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="28.5">
+      <c r="A8" s="23" t="s">
+        <v>313</v>
       </c>
       <c r="B8" s="2">
-        <v>144202303160037</v>
+        <v>144202303160038</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="E8" s="5">
         <v>20</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>283</v>
+      <c r="F8" s="21" t="s">
+        <v>315</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>437</v>
+        <v>216</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>321</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="W8" s="22"/>
     </row>
-    <row r="9" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="21" t="s">
-        <v>461</v>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="28.5">
+      <c r="A9" s="23" t="s">
+        <v>322</v>
       </c>
       <c r="B9" s="2">
-        <v>144202303160038</v>
+        <v>144202303160039</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E9" s="5">
         <v>20</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>284</v>
+      <c r="F9" s="21" t="s">
+        <v>323</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>398</v>
+        <v>219</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>329</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="W9" s="22"/>
     </row>
-    <row r="10" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
-        <v>462</v>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="28.5">
+      <c r="A10" s="23" t="s">
+        <v>330</v>
       </c>
       <c r="B10" s="2">
-        <v>144202303160039</v>
+        <v>144202303160040</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="E10" s="5">
         <v>20</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>285</v>
+      <c r="F10" s="21" t="s">
+        <v>331</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q10" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>438</v>
+        <v>222</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="T10" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="U10" s="21" t="s">
+        <v>337</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="W10" s="22"/>
     </row>
-    <row r="11" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="21" t="s">
-        <v>463</v>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="28.5">
+      <c r="A11" s="23" t="s">
+        <v>338</v>
       </c>
       <c r="B11" s="2">
-        <v>144202303160040</v>
+        <v>144202303160041</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="E11" s="5">
         <v>20</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>286</v>
+      <c r="F11" s="21" t="s">
+        <v>339</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q11" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q11" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="R11" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>439</v>
+      <c r="R11" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="T11" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>345</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="W11" s="22"/>
     </row>
-    <row r="12" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
-        <v>464</v>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="28.5">
+      <c r="A12" s="23" t="s">
+        <v>346</v>
       </c>
       <c r="B12" s="2">
-        <v>144202303160041</v>
+        <v>144202303160042</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="E12" s="5">
         <v>20</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>287</v>
+      <c r="F12" s="21" t="s">
+        <v>347</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="U12" s="12" t="s">
-        <v>440</v>
+        <v>228</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>353</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="W12" s="22"/>
     </row>
-    <row r="13" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="21" t="s">
-        <v>465</v>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="28.5">
+      <c r="A13" s="23" t="s">
+        <v>354</v>
       </c>
       <c r="B13" s="2">
-        <v>144202303160042</v>
+        <v>144202303160043</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="E13" s="5">
         <v>20</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="T13" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="U13" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W13" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="28.5">
+      <c r="A14" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" s="2">
+        <v>144202303160044</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E14" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="R14" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="S14" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="T14" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="U14" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M13" s="6" t="s">
+      <c r="V14" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="W14" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="28.5">
+      <c r="A15" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="2">
+        <v>144202303160045</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E15" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W15" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="28.5">
+      <c r="A16" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="B16" s="2">
+        <v>144202303160046</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E16" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="S13" s="12" t="s">
+      <c r="O16" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="R16" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="U16" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W16" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="28.5">
+      <c r="A17" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" s="2">
+        <v>144202303160047</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E17" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="R17" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="V17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W17" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="28.5">
+      <c r="A18" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="T13" s="12" t="s">
+      <c r="B18" s="2">
+        <v>144202303160048</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E18" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="R18" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="S18" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="T18" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="U18" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="V18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W18" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="28.5">
+      <c r="A19" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" s="2">
+        <v>144202303160049</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="R19" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="T19" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="U19" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="V19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W19" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="28.5">
+      <c r="A20" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="B20" s="2">
+        <v>144202303160050</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q20" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="R20" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="S20" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="U13" s="12" t="s">
+      <c r="T20" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U20" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="V20" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W20" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="28.5">
+      <c r="A21" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="2">
+        <v>144202303160051</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="P21" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q21" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="R21" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="S21" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="T21" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="U21" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="V21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W21" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="28.5">
+      <c r="A22" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="B22" s="2">
+        <v>144202303160052</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E22" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q22" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="R22" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="S22" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="T22" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W22" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="28.5">
+      <c r="A23" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="B23" s="2">
+        <v>144202303160053</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E23" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="P23" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="V13" s="6" t="s">
+      <c r="Q23" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="R23" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="S23" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="T23" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="U23" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="V23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W23" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="B24" s="2">
+        <v>144202303160054</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E24" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" s="6" t="s">
         <v>89</v>
       </c>
+      <c r="N24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="P24" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q24" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="R24" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="S24" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="T24" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="U24" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W24" s="22"/>
     </row>
-    <row r="14" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="21" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="B25" s="2">
+        <v>144202303160055</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="P25" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q25" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="R25" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="T25" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="U25" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="V25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W25" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="B26" s="2">
+        <v>144202303160056</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B14" s="2">
-        <v>144202303160043</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E14" s="5">
-        <v>20</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="M14" s="6" t="s">
+      <c r="D26" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E26" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="P26" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q26" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="R26" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="S26" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="T26" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="U26" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="V26" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W26" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="B27" s="2">
+        <v>144202303160057</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E27" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="M27" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="S14" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="V14" s="6" t="s">
+      <c r="O27" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="P27" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q27" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="R27" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="S27" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="T27" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="U27" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="V27" s="6" t="s">
         <v>77</v>
       </c>
+      <c r="W27" s="22"/>
     </row>
-    <row r="15" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="B15" s="2">
-        <v>144202303160044</v>
-      </c>
-      <c r="C15" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="B28" s="2">
+        <v>144202303160058</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E28" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="P28" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q28" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="R28" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="S28" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="T28" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="U28" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W28" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="B29" s="2">
+        <v>144202303160059</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E29" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E15" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M15" s="6" t="s">
+      <c r="P29" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q29" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="R29" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="S29" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="T29" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="U29" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="V29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W29" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="B30" s="2">
+        <v>144202303160060</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E30" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N30" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="U15" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="V15" s="6" t="s">
+      <c r="O30" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="P30" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q30" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="R30" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="S30" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="T30" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="U30" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="V30" s="6" t="s">
         <v>89</v>
       </c>
+      <c r="W30" s="22"/>
     </row>
-    <row r="16" spans="1:23" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="B16" s="2">
-        <v>144202303160045</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E16" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="U16" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="V16" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="B17" s="2">
-        <v>144202303160046</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E17" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="T17" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="U17" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="B18" s="2">
-        <v>144202303160047</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E18" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="U18" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="B19" s="2">
-        <v>144202303160048</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E19" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="U19" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="V19" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="B20" s="2">
-        <v>144202303160049</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E20" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="R20" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="U20" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="V20" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="B21" s="2">
-        <v>144202303160050</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E21" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="B31" s="2">
+        <v>144202303160061</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E31" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="R21" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="T21" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="U21" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="V21" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="B22" s="2">
-        <v>144202303160051</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E22" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="P22" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q22" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="R22" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="U22" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="V22" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="B23" s="2">
-        <v>144202303160052</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E23" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q23" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="R23" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="U23" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="V23" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="B24" s="2">
-        <v>144202303160053</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E24" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="R24" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="U24" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="V24" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="21" t="s">
-        <v>477</v>
-      </c>
-      <c r="B25" s="2">
-        <v>144202303160054</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E25" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="P25" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q25" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="R25" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="T25" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="U25" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="V25" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="B26" s="2">
-        <v>144202303160055</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E26" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="P26" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q26" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="R26" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="S26" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="T26" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="U26" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="V26" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="B27" s="2">
-        <v>144202303160056</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E27" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="P27" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q27" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="R27" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="S27" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="T27" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="U27" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="V27" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="B28" s="2">
-        <v>144202303160057</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E28" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="P28" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="R28" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="S28" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="T28" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="U28" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="V28" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="B29" s="2">
-        <v>144202303160058</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E29" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="P29" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="R29" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="T29" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="U29" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="V29" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="B30" s="2">
-        <v>144202303160059</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E30" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="P30" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="R30" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="S30" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="T30" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="U30" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="V30" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="B31" s="2">
-        <v>144202303160060</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E31" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="M31" s="6" t="s">
         <v>89</v>
@@ -4300,719 +4303,659 @@
         <v>182</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="P31" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q31" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="R31" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="S31" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="U31" s="12" t="s">
-        <v>303</v>
+        <v>509</v>
+      </c>
+      <c r="P31" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q31" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="R31" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="S31" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="T31" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="U31" s="21" t="s">
+        <v>418</v>
       </c>
       <c r="V31" s="6" t="s">
         <v>89</v>
       </c>
+      <c r="W31" s="22"/>
     </row>
-    <row r="32" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="21" t="s">
-        <v>484</v>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="23" t="s">
+        <v>510</v>
       </c>
       <c r="B32" s="2">
-        <v>144202303160061</v>
+        <v>144202303160062</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>511</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E32" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F32" s="20" t="s">
         <v>296</v>
       </c>
+      <c r="E32" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>421</v>
+      </c>
       <c r="G32" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="P32" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q32" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="R32" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="S32" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="T32" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="U32" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W32" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="B33" s="2">
+        <v>144202303160063</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E33" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M33" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="O33" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q33" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="R33" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="S33" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="T33" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="U33" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="V33" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W33" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="B34" s="2">
+        <v>144202303160064</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E34" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="P34" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q34" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="R34" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="S34" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="T34" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="U34" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W34" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="B35" s="2">
+        <v>144202303160065</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E35" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q35" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="R35" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="S35" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="T35" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="U35" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="V35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W35" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="B36" s="2">
+        <v>144202303160066</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E36" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="P36" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q36" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="R36" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="S36" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="T36" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W36" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="B37" s="2">
+        <v>144202303160067</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="P37" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q37" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="R37" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="S37" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="T37" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="U37" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W37" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="B38" s="2">
+        <v>144202303160068</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E38" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="P38" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q38" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="R38" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="S38" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="T38" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="U38" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W38" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="B39" s="2">
+        <v>144202303160069</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E39" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O39" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="P32" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q32" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="R32" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="S32" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="T32" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="U32" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="V32" s="6" t="s">
+      <c r="P39" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q39" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="R39" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="S39" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="T39" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="U39" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="V39" s="6" t="s">
         <v>89</v>
       </c>
+      <c r="W39" s="22"/>
     </row>
-    <row r="33" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="B33" s="2">
-        <v>144202303160062</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E33" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="M33" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="B40" s="2">
+        <v>144202303160070</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E40" s="20">
+        <v>30.2380952380952</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="P33" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q33" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="R33" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="S33" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="T33" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="U33" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="V33" s="6" t="s">
+      <c r="O40" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="P40" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q40" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="R40" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="S40" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="T40" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="U40" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="V40" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="B34" s="2">
-        <v>144202303160063</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E34" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q34" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="R34" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="S34" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="T34" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="U34" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="V34" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="B35" s="2">
-        <v>144202303160064</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E35" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="P35" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q35" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="R35" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="S35" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="T35" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="U35" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="V35" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="B36" s="2">
-        <v>144202303160065</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E36" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="P36" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q36" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="R36" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="S36" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="T36" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="U36" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="V36" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="B37" s="2">
-        <v>144202303160066</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E37" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="P37" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q37" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="R37" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="T37" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="U37" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="V37" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="B38" s="2">
-        <v>144202303160067</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E38" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="P38" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q38" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="R38" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="S38" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="T38" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="U38" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="V38" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="B39" s="2">
-        <v>144202303160068</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E39" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="P39" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q39" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="R39" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="S39" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="T39" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="U39" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="V39" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="B40" s="2">
-        <v>144202303160069</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E40" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="P40" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q40" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="R40" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="S40" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="T40" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="U40" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="V40" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="B41" s="2">
-        <v>144202303160070</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="E41" s="11">
-        <v>30.238095238095202</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="P41" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q41" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="R41" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="S41" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="T41" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="U41" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="V41" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="W40" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -5022,14 +4965,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="22" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="11" width="43.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A1" s="2">
         <v>144202303160003</v>
       </c>
@@ -5097,7 +5057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A2" s="2">
         <v>144202303160004</v>
       </c>
@@ -5165,7 +5125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A3" s="2">
         <v>144202303160005</v>
       </c>
@@ -5233,7 +5193,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A4" s="2">
         <v>144202303160006</v>
       </c>
@@ -5301,7 +5261,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A5" s="2">
         <v>144202303160007</v>
       </c>
@@ -5369,7 +5329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A6" s="2">
         <v>144202303160008</v>
       </c>
@@ -5437,7 +5397,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A7" s="2">
         <v>144202303160009</v>
       </c>
@@ -5505,7 +5465,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A8" s="2">
         <v>144202303160010</v>
       </c>
@@ -5573,7 +5533,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A9" s="2">
         <v>144202303160011</v>
       </c>
@@ -5641,7 +5601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A10" s="2">
         <v>144202303160012</v>
       </c>
@@ -5709,7 +5669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A11" s="2">
         <v>144202303160013</v>
       </c>
@@ -5777,7 +5737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A12" s="2">
         <v>144202303160014</v>
       </c>
@@ -5845,7 +5805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A13" s="2">
         <v>144202303160015</v>
       </c>
@@ -5913,7 +5873,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A14" s="2">
         <v>144202303160016</v>
       </c>
@@ -5981,7 +5941,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A15" s="2">
         <v>144202303160017</v>
       </c>
@@ -6049,7 +6009,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A16" s="2">
         <v>144202303160018</v>
       </c>
@@ -6117,7 +6077,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A17" s="2">
         <v>144202303160019</v>
       </c>
@@ -6185,7 +6145,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A18" s="2">
         <v>144202303160020</v>
       </c>
@@ -6253,7 +6213,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A19" s="2">
         <v>144202303160021</v>
       </c>
@@ -6321,7 +6281,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A20" s="2">
         <v>144202303160022</v>
       </c>
@@ -6389,7 +6349,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A21" s="2">
         <v>144202303160023</v>
       </c>
@@ -6457,7 +6417,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A22" s="2">
         <v>144202303160024</v>
       </c>
@@ -6525,7 +6485,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A23" s="2">
         <v>144202303160025</v>
       </c>
@@ -6593,7 +6553,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A24" s="2">
         <v>144202303160026</v>
       </c>
@@ -6661,7 +6621,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A25" s="2">
         <v>144202303160027</v>
       </c>
@@ -6729,7 +6689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A26" s="2">
         <v>144202303160028</v>
       </c>
@@ -6797,7 +6757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A27" s="2">
         <v>144202303160029</v>
       </c>
@@ -6865,7 +6825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A28" s="2">
         <v>144202303160030</v>
       </c>
@@ -6933,7 +6893,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A29" s="8">
         <v>144202303160031</v>
       </c>
@@ -6947,7 +6907,7 @@
         <v>98</v>
       </c>
       <c r="E29" s="9">
-        <v>5.6711711711711699</v>
+        <v>5.67117117117117</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>87</v>
@@ -7001,7 +6961,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A30" s="2">
         <v>144202303160032</v>
       </c>
@@ -7015,7 +6975,7 @@
         <v>109</v>
       </c>
       <c r="E30" s="10">
-        <v>5.6951161688003804</v>
+        <v>5.69511616880038</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>99</v>
@@ -7069,7 +7029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A31" s="2">
         <v>144202303160033</v>
       </c>
@@ -7083,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="9">
-        <v>5.7190611664295901</v>
+        <v>5.71906116642959</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>110</v>
@@ -7137,7 +7097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A32" s="2">
         <v>144202303160034</v>
       </c>
@@ -7151,7 +7111,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="9">
-        <v>5.7430061640587997</v>
+        <v>5.7430061640588</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>121</v>
@@ -7205,7 +7165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A33" s="2">
         <v>144202303160035</v>
       </c>
@@ -7219,7 +7179,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="9">
-        <v>5.7669511616879996</v>
+        <v>5.766951161688</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>131</v>
@@ -7273,7 +7233,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A34" s="2">
         <v>144202303160036</v>
       </c>
@@ -7287,7 +7247,7 @@
         <v>44</v>
       </c>
       <c r="E34" s="9">
-        <v>5.7908961593172101</v>
+        <v>5.79089615931721</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>142</v>

--- a/SDP/Filexel/RegSelenium.xlsx
+++ b/SDP/Filexel/RegSelenium.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="248">
   <si>
     <t>NSP-01-01-010</t>
   </si>
@@ -756,6 +756,9 @@
   </si>
   <si>
     <t>Npts/048</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -904,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -945,22 +948,28 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -990,12 +999,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:A100" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A2:A100"/>
-  <tableColumns count="1">
-    <tableColumn name="'934202311030018" id="1" totalsRowLabel="Total"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:W99" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:W99"/>
+  <tableColumns count="23">
+    <tableColumn name="Column25" id="1" totalsRowLabel="Total"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+    <tableColumn name="Column5" id="5"/>
+    <tableColumn name="Column6" id="6"/>
+    <tableColumn name="Column7" id="7"/>
+    <tableColumn name="Column8" id="8"/>
+    <tableColumn name="Column9" id="9"/>
+    <tableColumn name="Column10" id="10"/>
+    <tableColumn name="Column11" id="11"/>
+    <tableColumn name="Column12" id="12"/>
+    <tableColumn name="Column13" id="13"/>
+    <tableColumn name="Column14" id="14"/>
+    <tableColumn name="Column15" id="15"/>
+    <tableColumn name="Column16" id="16"/>
+    <tableColumn name="Column17" id="17"/>
+    <tableColumn name="Column18" id="18"/>
+    <tableColumn name="Column19" id="19"/>
+    <tableColumn name="Column20" id="20"/>
+    <tableColumn name="Column21" id="21"/>
+    <tableColumn name="Column22" id="22"/>
+    <tableColumn name="Column23" id="23" totalsRowFunction="custom">
+      <totalsRowFormula>Sum</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -1293,61 +1326,105 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="22" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="23" width="37.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="23" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="23" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="23" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="23" width="38.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="23" width="43.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="23" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="23" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="23" width="35.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="23" width="41.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="23" width="41.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="23" width="32.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="23" width="39.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="23" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="23" width="31.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="23" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="23" width="33.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="23" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="23" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="23" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="23" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="23" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="24" width="31.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="25" width="37.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="25" width="37.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="25" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="25" width="38.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="25" width="43.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="25" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="25" width="40.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="25" width="35.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="25" width="41.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="25" width="41.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="25" width="32.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="25" width="39.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="25" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="25" width="31.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="25" width="37.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="25" width="33.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="25" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="25" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="25" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="25" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="25" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A1" s="14">
-        <v>311130001</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="17"/>
+        <v>384202311220036</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A2" s="18">
-        <v>311130001</v>
+        <v>384202311220036</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -1370,17 +1447,17 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="6"/>
-      <c r="W2" s="17"/>
+      <c r="W2" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A3" s="18">
-        <v>1150001</v>
+      <c r="A3" s="21">
+        <v>384202311220037</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1390,24 +1467,24 @@
       <c r="M3" s="6"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
       <c r="V3" s="6"/>
-      <c r="W3" s="17"/>
+      <c r="W3" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A4" s="18">
-        <v>1150002</v>
-      </c>
-      <c r="B4" s="21"/>
+      <c r="A4" s="21">
+        <v>384202311220038</v>
+      </c>
+      <c r="B4" s="23"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="20"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1417,24 +1494,24 @@
       <c r="M4" s="6"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="17"/>
+      <c r="W4" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A5" s="18">
-        <v>1150003</v>
+        <v>384202311220039</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="20"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1444,24 +1521,24 @@
       <c r="M5" s="6"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="17"/>
+      <c r="W5" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A6" s="18">
-        <v>1150004</v>
+      <c r="A6" s="21">
+        <v>384202311220040</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="20"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1471,24 +1548,24 @@
       <c r="M6" s="6"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="17"/>
+      <c r="W6" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A7" s="18">
-        <v>1150005</v>
+      <c r="A7" s="21">
+        <v>384202311220041</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1498,24 +1575,24 @@
       <c r="M7" s="6"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
       <c r="V7" s="6"/>
-      <c r="W7" s="17"/>
+      <c r="W7" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A8" s="18">
-        <v>1150006</v>
+        <v>384202311220042</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1525,24 +1602,24 @@
       <c r="M8" s="6"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
       <c r="V8" s="6"/>
-      <c r="W8" s="17"/>
+      <c r="W8" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A9" s="18">
-        <v>1150007</v>
+      <c r="A9" s="21">
+        <v>384202311220043</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1552,24 +1629,24 @@
       <c r="M9" s="6"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
       <c r="V9" s="6"/>
-      <c r="W9" s="17"/>
+      <c r="W9" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A10" s="18">
-        <v>1150008</v>
+      <c r="A10" s="21">
+        <v>384202311220044</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1579,24 +1656,24 @@
       <c r="M10" s="6"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
       <c r="V10" s="6"/>
-      <c r="W10" s="17"/>
+      <c r="W10" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A11" s="18">
-        <v>1150009</v>
+        <v>384202311220045</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1606,24 +1683,24 @@
       <c r="M11" s="6"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
       <c r="V11" s="6"/>
-      <c r="W11" s="17"/>
+      <c r="W11" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A12" s="18">
-        <v>1150010</v>
+      <c r="A12" s="21">
+        <v>384202311220046</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1633,24 +1710,24 @@
       <c r="M12" s="6"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
       <c r="V12" s="6"/>
-      <c r="W12" s="17"/>
+      <c r="W12" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A13" s="18">
-        <v>1150011</v>
+      <c r="A13" s="21">
+        <v>384202311220047</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1660,24 +1737,24 @@
       <c r="M13" s="6"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
       <c r="V13" s="6"/>
-      <c r="W13" s="17"/>
+      <c r="W13" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A14" s="18">
-        <v>1150012</v>
+        <v>384202311220048</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1687,24 +1764,24 @@
       <c r="M14" s="6"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="17"/>
+      <c r="W14" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A15" s="18">
-        <v>1150013</v>
+      <c r="A15" s="21">
+        <v>384202311220049</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1714,24 +1791,24 @@
       <c r="M15" s="6"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
       <c r="V15" s="6"/>
-      <c r="W15" s="17"/>
+      <c r="W15" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A16" s="18">
-        <v>1150014</v>
+      <c r="A16" s="21">
+        <v>384202311220050</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1741,24 +1818,24 @@
       <c r="M16" s="6"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
       <c r="V16" s="6"/>
-      <c r="W16" s="17"/>
+      <c r="W16" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A17" s="18">
-        <v>1150015</v>
+        <v>384202311220051</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1768,24 +1845,24 @@
       <c r="M17" s="6"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
       <c r="V17" s="6"/>
-      <c r="W17" s="17"/>
+      <c r="W17" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A18" s="18">
-        <v>1150016</v>
+      <c r="A18" s="21">
+        <v>384202311220052</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1795,24 +1872,24 @@
       <c r="M18" s="6"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
       <c r="V18" s="6"/>
-      <c r="W18" s="17"/>
+      <c r="W18" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A19" s="18">
-        <v>1150017</v>
+      <c r="A19" s="21">
+        <v>384202311220053</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1822,24 +1899,24 @@
       <c r="M19" s="6"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
       <c r="V19" s="6"/>
-      <c r="W19" s="17"/>
+      <c r="W19" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A20" s="18">
-        <v>1150018</v>
+        <v>384202311220054</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1849,24 +1926,24 @@
       <c r="M20" s="6"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
       <c r="V20" s="6"/>
-      <c r="W20" s="17"/>
+      <c r="W20" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A21" s="18">
-        <v>1150019</v>
+      <c r="A21" s="21">
+        <v>384202311220055</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1876,24 +1953,24 @@
       <c r="M21" s="6"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
       <c r="V21" s="6"/>
-      <c r="W21" s="17"/>
+      <c r="W21" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A22" s="18">
-        <v>1150020</v>
+      <c r="A22" s="21">
+        <v>384202311220056</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1903,24 +1980,24 @@
       <c r="M22" s="6"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
       <c r="V22" s="6"/>
-      <c r="W22" s="17"/>
+      <c r="W22" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A23" s="18">
-        <v>1150021</v>
+        <v>384202311220057</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
+      <c r="F23" s="22"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1930,24 +2007,24 @@
       <c r="M23" s="6"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
       <c r="V23" s="6"/>
-      <c r="W23" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A24" s="18">
-        <v>1150022</v>
+      <c r="W23" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A24" s="21">
+        <v>384202311220058</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1957,24 +2034,24 @@
       <c r="M24" s="6"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
       <c r="V24" s="6"/>
-      <c r="W24" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A25" s="18">
-        <v>1150023</v>
+      <c r="W24" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A25" s="21">
+        <v>384202311220058.75</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1984,24 +2061,24 @@
       <c r="M25" s="6"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
       <c r="V25" s="6"/>
-      <c r="W25" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A26" s="18">
-        <v>1150024</v>
+      <c r="W25" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A26" s="21">
+        <v>384202311220059.75</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -2011,24 +2088,24 @@
       <c r="M26" s="6"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
       <c r="V26" s="6"/>
-      <c r="W26" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="W26" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A27" s="18">
-        <v>1150025</v>
+        <v>384202311220060.75</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -2038,24 +2115,24 @@
       <c r="M27" s="6"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
       <c r="V27" s="6"/>
-      <c r="W27" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A28" s="18">
-        <v>1150026</v>
+      <c r="W27" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A28" s="21">
+        <v>384202311220061.7</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -2065,24 +2142,24 @@
       <c r="M28" s="6"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
       <c r="V28" s="6"/>
-      <c r="W28" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A29" s="18">
-        <v>1150027</v>
+      <c r="W28" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A29" s="21">
+        <v>384202311220062.7</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -2092,24 +2169,24 @@
       <c r="M29" s="6"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
       <c r="V29" s="6"/>
-      <c r="W29" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="W29" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A30" s="18">
-        <v>1150028</v>
+        <v>384202311220063.7</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -2119,24 +2196,24 @@
       <c r="M30" s="6"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
       <c r="V30" s="6"/>
-      <c r="W30" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A31" s="18">
-        <v>1150029</v>
+      <c r="W30" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A31" s="21">
+        <v>384202311220064.6</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -2146,24 +2223,24 @@
       <c r="M31" s="6"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
       <c r="V31" s="6"/>
-      <c r="W31" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A32" s="18">
-        <v>1150030</v>
+      <c r="W31" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A32" s="21">
+        <v>384202311220065.6</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -2173,24 +2250,24 @@
       <c r="M32" s="6"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
       <c r="V32" s="6"/>
-      <c r="W32" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A33" s="18">
-        <v>1150031</v>
+      <c r="W32" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A33" s="21">
+        <v>384202311220066.6</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -2200,24 +2277,24 @@
       <c r="M33" s="6"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
       <c r="V33" s="6"/>
-      <c r="W33" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="W33" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A34" s="18">
-        <v>1150032</v>
+        <v>384202311220067.56</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -2227,24 +2304,22 @@
       <c r="M34" s="6"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
       <c r="V34" s="6"/>
-      <c r="W34" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A35" s="18">
-        <v>1150033</v>
-      </c>
+      <c r="W34" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A35" s="21"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="20"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -2254,24 +2329,22 @@
       <c r="M35" s="6"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
       <c r="V35" s="6"/>
-      <c r="W35" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A36" s="18">
-        <v>1150034</v>
-      </c>
+      <c r="W35" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A36" s="18"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -2281,24 +2354,22 @@
       <c r="M36" s="6"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
       <c r="V36" s="6"/>
-      <c r="W36" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A37" s="18">
-        <v>1150035</v>
-      </c>
+      <c r="W36" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A37" s="21"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -2308,24 +2379,22 @@
       <c r="M37" s="6"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
       <c r="V37" s="6"/>
-      <c r="W37" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A38" s="18">
-        <v>1150036</v>
-      </c>
+      <c r="W37" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A38" s="21"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="20"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -2335,24 +2404,22 @@
       <c r="M38" s="6"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
       <c r="V38" s="6"/>
-      <c r="W38" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A39" s="18">
-        <v>1150037</v>
-      </c>
+      <c r="W38" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A39" s="21"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -2362,24 +2429,22 @@
       <c r="M39" s="6"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
       <c r="V39" s="6"/>
-      <c r="W39" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A40" s="18">
-        <v>1150038</v>
-      </c>
+      <c r="W39" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A40" s="18"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -2389,1634 +2454,1514 @@
       <c r="M40" s="6"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
       <c r="V40" s="6"/>
-      <c r="W40" s="17"/>
+      <c r="W40" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A41" s="18">
-        <v>1150039</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A42" s="18">
-        <v>1150040</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A43" s="18">
-        <v>1150041</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A44" s="18">
-        <v>1150042</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A45" s="18">
-        <v>1150043</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A46" s="18">
-        <v>1150044</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A47" s="18">
-        <v>1150045</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A48" s="18">
-        <v>1150046</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A49" s="18">
-        <v>1150047</v>
-      </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A50" s="18">
-        <v>1150048</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A51" s="18">
-        <v>1150049</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A52" s="18">
-        <v>1150050</v>
-      </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A42" s="21"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A43" s="18"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A44" s="21"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A45" s="21"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A46" s="21"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A47" s="18"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A49" s="21"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A50" s="18"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A51" s="18"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A52" s="18"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A53" s="18">
-        <v>1150051</v>
-      </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="17"/>
-      <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
-      <c r="U53" s="17"/>
-      <c r="V53" s="17"/>
-      <c r="W53" s="17"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A54" s="18">
-        <v>1150052</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
-      <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A55" s="18">
-        <v>1150053</v>
-      </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A56" s="18">
-        <v>1150054</v>
-      </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A57" s="18">
-        <v>1150055</v>
-      </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
-      <c r="W57" s="17"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A58" s="18">
-        <v>1150056</v>
-      </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A59" s="18">
-        <v>1150057</v>
-      </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="17"/>
-      <c r="V59" s="17"/>
-      <c r="W59" s="17"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A60" s="18">
-        <v>1150058</v>
-      </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
-      <c r="S60" s="17"/>
-      <c r="T60" s="17"/>
-      <c r="U60" s="17"/>
-      <c r="V60" s="17"/>
-      <c r="W60" s="17"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A61" s="18">
-        <v>1150059</v>
-      </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="17"/>
-      <c r="S61" s="17"/>
-      <c r="T61" s="17"/>
-      <c r="U61" s="17"/>
-      <c r="V61" s="17"/>
-      <c r="W61" s="17"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A62" s="18">
-        <v>1150060</v>
-      </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
-      <c r="S62" s="17"/>
-      <c r="T62" s="17"/>
-      <c r="U62" s="17"/>
-      <c r="V62" s="17"/>
-      <c r="W62" s="17"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A63" s="18">
-        <v>1150061</v>
-      </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
-      <c r="R63" s="17"/>
-      <c r="S63" s="17"/>
-      <c r="T63" s="17"/>
-      <c r="U63" s="17"/>
-      <c r="V63" s="17"/>
-      <c r="W63" s="17"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A64" s="18">
-        <v>1150062</v>
-      </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="17"/>
-      <c r="V64" s="17"/>
-      <c r="W64" s="17"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A65" s="18">
-        <v>1150063</v>
-      </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="17"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="17"/>
-      <c r="U65" s="17"/>
-      <c r="V65" s="17"/>
-      <c r="W65" s="17"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A66" s="18">
-        <v>1150064</v>
-      </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="17"/>
-      <c r="U66" s="17"/>
-      <c r="V66" s="17"/>
-      <c r="W66" s="17"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A67" s="18">
-        <v>1150065</v>
-      </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="17"/>
-      <c r="U67" s="17"/>
-      <c r="V67" s="17"/>
-      <c r="W67" s="17"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A68" s="18">
-        <v>1150066</v>
-      </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="17"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="17"/>
-      <c r="U68" s="17"/>
-      <c r="V68" s="17"/>
-      <c r="W68" s="17"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A69" s="18">
-        <v>1150067</v>
-      </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="17"/>
-      <c r="T69" s="17"/>
-      <c r="U69" s="17"/>
-      <c r="V69" s="17"/>
-      <c r="W69" s="17"/>
+      <c r="A69" s="18"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="20"/>
+      <c r="W69" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A70" s="18">
-        <v>1150068</v>
-      </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="17"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="17"/>
-      <c r="U70" s="17"/>
-      <c r="V70" s="17"/>
-      <c r="W70" s="17"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="20"/>
+      <c r="W70" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A71" s="18">
-        <v>1150069</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="17"/>
-      <c r="T71" s="17"/>
-      <c r="U71" s="17"/>
-      <c r="V71" s="17"/>
-      <c r="W71" s="17"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A72" s="18">
-        <v>1150070</v>
-      </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="17"/>
-      <c r="S72" s="17"/>
-      <c r="T72" s="17"/>
-      <c r="U72" s="17"/>
-      <c r="V72" s="17"/>
-      <c r="W72" s="17"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="20"/>
+      <c r="W72" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A73" s="18">
-        <v>1150071</v>
-      </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
-      <c r="R73" s="17"/>
-      <c r="S73" s="17"/>
-      <c r="T73" s="17"/>
-      <c r="U73" s="17"/>
-      <c r="V73" s="17"/>
-      <c r="W73" s="17"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+      <c r="U73" s="20"/>
+      <c r="V73" s="20"/>
+      <c r="W73" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A74" s="18">
-        <v>1150072</v>
-      </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="17"/>
-      <c r="U74" s="17"/>
-      <c r="V74" s="17"/>
-      <c r="W74" s="17"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="20"/>
+      <c r="U74" s="20"/>
+      <c r="V74" s="20"/>
+      <c r="W74" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A75" s="18">
-        <v>1150073</v>
-      </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="17"/>
-      <c r="T75" s="17"/>
-      <c r="U75" s="17"/>
-      <c r="V75" s="17"/>
-      <c r="W75" s="17"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="20"/>
+      <c r="U75" s="20"/>
+      <c r="V75" s="20"/>
+      <c r="W75" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A76" s="18">
-        <v>1150074</v>
-      </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
-      <c r="R76" s="17"/>
-      <c r="S76" s="17"/>
-      <c r="T76" s="17"/>
-      <c r="U76" s="17"/>
-      <c r="V76" s="17"/>
-      <c r="W76" s="17"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="20"/>
+      <c r="T76" s="20"/>
+      <c r="U76" s="20"/>
+      <c r="V76" s="20"/>
+      <c r="W76" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A77" s="18">
-        <v>1150075</v>
-      </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
-      <c r="R77" s="17"/>
-      <c r="S77" s="17"/>
-      <c r="T77" s="17"/>
-      <c r="U77" s="17"/>
-      <c r="V77" s="17"/>
-      <c r="W77" s="17"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="20"/>
+      <c r="U77" s="20"/>
+      <c r="V77" s="20"/>
+      <c r="W77" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A78" s="18">
-        <v>1150076</v>
-      </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="17"/>
-      <c r="T78" s="17"/>
-      <c r="U78" s="17"/>
-      <c r="V78" s="17"/>
-      <c r="W78" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A79" s="18">
-        <v>1150077</v>
-      </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
-      <c r="R79" s="17"/>
-      <c r="S79" s="17"/>
-      <c r="T79" s="17"/>
-      <c r="U79" s="17"/>
-      <c r="V79" s="17"/>
-      <c r="W79" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A80" s="18">
-        <v>1150078</v>
-      </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="17"/>
-      <c r="T80" s="17"/>
-      <c r="U80" s="17"/>
-      <c r="V80" s="17"/>
-      <c r="W80" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A81" s="18">
-        <v>1150079</v>
-      </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
-      <c r="R81" s="17"/>
-      <c r="S81" s="17"/>
-      <c r="T81" s="17"/>
-      <c r="U81" s="17"/>
-      <c r="V81" s="17"/>
-      <c r="W81" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A82" s="18">
-        <v>1150080</v>
-      </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
-      <c r="R82" s="17"/>
-      <c r="S82" s="17"/>
-      <c r="T82" s="17"/>
-      <c r="U82" s="17"/>
-      <c r="V82" s="17"/>
-      <c r="W82" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A83" s="18">
-        <v>1150081</v>
-      </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
-      <c r="R83" s="17"/>
-      <c r="S83" s="17"/>
-      <c r="T83" s="17"/>
-      <c r="U83" s="17"/>
-      <c r="V83" s="17"/>
-      <c r="W83" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A84" s="18">
-        <v>1150082</v>
-      </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="17"/>
-      <c r="T84" s="17"/>
-      <c r="U84" s="17"/>
-      <c r="V84" s="17"/>
-      <c r="W84" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A85" s="18">
-        <v>1150083</v>
-      </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="17"/>
-      <c r="T85" s="17"/>
-      <c r="U85" s="17"/>
-      <c r="V85" s="17"/>
-      <c r="W85" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A86" s="18">
-        <v>1150084</v>
-      </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
-      <c r="R86" s="17"/>
-      <c r="S86" s="17"/>
-      <c r="T86" s="17"/>
-      <c r="U86" s="17"/>
-      <c r="V86" s="17"/>
-      <c r="W86" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A87" s="18">
-        <v>1150085</v>
-      </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
-      <c r="R87" s="17"/>
-      <c r="S87" s="17"/>
-      <c r="T87" s="17"/>
-      <c r="U87" s="17"/>
-      <c r="V87" s="17"/>
-      <c r="W87" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A88" s="18">
-        <v>1150086</v>
-      </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="17"/>
-      <c r="T88" s="17"/>
-      <c r="U88" s="17"/>
-      <c r="V88" s="17"/>
-      <c r="W88" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A89" s="18">
-        <v>1150087</v>
-      </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
-      <c r="R89" s="17"/>
-      <c r="S89" s="17"/>
-      <c r="T89" s="17"/>
-      <c r="U89" s="17"/>
-      <c r="V89" s="17"/>
-      <c r="W89" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A90" s="18">
-        <v>1150088</v>
-      </c>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="17"/>
-      <c r="T90" s="17"/>
-      <c r="U90" s="17"/>
-      <c r="V90" s="17"/>
-      <c r="W90" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A91" s="18">
-        <v>1150089</v>
-      </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="17"/>
-      <c r="T91" s="17"/>
-      <c r="U91" s="17"/>
-      <c r="V91" s="17"/>
-      <c r="W91" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A92" s="18">
-        <v>1150090</v>
-      </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
-      <c r="R92" s="17"/>
-      <c r="S92" s="17"/>
-      <c r="T92" s="17"/>
-      <c r="U92" s="17"/>
-      <c r="V92" s="17"/>
-      <c r="W92" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A93" s="18">
-        <v>1150091</v>
-      </c>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
-      <c r="R93" s="17"/>
-      <c r="S93" s="17"/>
-      <c r="T93" s="17"/>
-      <c r="U93" s="17"/>
-      <c r="V93" s="17"/>
-      <c r="W93" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A94" s="18">
-        <v>1150092</v>
-      </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
-      <c r="R94" s="17"/>
-      <c r="S94" s="17"/>
-      <c r="T94" s="17"/>
-      <c r="U94" s="17"/>
-      <c r="V94" s="17"/>
-      <c r="W94" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A95" s="18">
-        <v>1150093</v>
-      </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="17"/>
-      <c r="T95" s="17"/>
-      <c r="U95" s="17"/>
-      <c r="V95" s="17"/>
-      <c r="W95" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A96" s="18">
-        <v>1150094</v>
-      </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
-      <c r="R96" s="17"/>
-      <c r="S96" s="17"/>
-      <c r="T96" s="17"/>
-      <c r="U96" s="17"/>
-      <c r="V96" s="17"/>
-      <c r="W96" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A97" s="18">
-        <v>1150095</v>
-      </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="17"/>
-      <c r="T97" s="17"/>
-      <c r="U97" s="17"/>
-      <c r="V97" s="17"/>
-      <c r="W97" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A98" s="18">
-        <v>1150096</v>
-      </c>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
-      <c r="R98" s="17"/>
-      <c r="S98" s="17"/>
-      <c r="T98" s="17"/>
-      <c r="U98" s="17"/>
-      <c r="V98" s="17"/>
-      <c r="W98" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A99" s="18">
-        <v>1150097</v>
-      </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="17"/>
-      <c r="T99" s="17"/>
-      <c r="U99" s="17"/>
-      <c r="V99" s="17"/>
-      <c r="W99" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A100" s="18">
-        <v>1150098</v>
-      </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="17"/>
-      <c r="T100" s="17"/>
-      <c r="U100" s="17"/>
-      <c r="V100" s="17"/>
-      <c r="W100" s="17"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="20"/>
+      <c r="S78" s="20"/>
+      <c r="T78" s="20"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="20"/>
+      <c r="W78" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A79" s="18"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="20"/>
+      <c r="R79" s="20"/>
+      <c r="S79" s="20"/>
+      <c r="T79" s="20"/>
+      <c r="U79" s="20"/>
+      <c r="V79" s="20"/>
+      <c r="W79" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A80" s="18"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="20"/>
+      <c r="S80" s="20"/>
+      <c r="T80" s="20"/>
+      <c r="U80" s="20"/>
+      <c r="V80" s="20"/>
+      <c r="W80" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A81" s="18"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="20"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="20"/>
+      <c r="U81" s="20"/>
+      <c r="V81" s="20"/>
+      <c r="W81" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A82" s="18"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="20"/>
+      <c r="U82" s="20"/>
+      <c r="V82" s="20"/>
+      <c r="W82" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A83" s="18"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A84" s="18"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="20"/>
+      <c r="W84" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A85" s="18"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="20"/>
+      <c r="O85" s="20"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="20"/>
+      <c r="R85" s="20"/>
+      <c r="S85" s="20"/>
+      <c r="T85" s="20"/>
+      <c r="U85" s="20"/>
+      <c r="V85" s="20"/>
+      <c r="W85" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A86" s="18"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="20"/>
+      <c r="U86" s="20"/>
+      <c r="V86" s="20"/>
+      <c r="W86" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A87" s="18"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="20"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="20"/>
+      <c r="Q87" s="20"/>
+      <c r="R87" s="20"/>
+      <c r="S87" s="20"/>
+      <c r="T87" s="20"/>
+      <c r="U87" s="20"/>
+      <c r="V87" s="20"/>
+      <c r="W87" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A88" s="18"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="20"/>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="20"/>
+      <c r="S88" s="20"/>
+      <c r="T88" s="20"/>
+      <c r="U88" s="20"/>
+      <c r="V88" s="20"/>
+      <c r="W88" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A89" s="18"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="20"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="20"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="20"/>
+      <c r="T89" s="20"/>
+      <c r="U89" s="20"/>
+      <c r="V89" s="20"/>
+      <c r="W89" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A90" s="18"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="20"/>
+      <c r="Q90" s="20"/>
+      <c r="R90" s="20"/>
+      <c r="S90" s="20"/>
+      <c r="T90" s="20"/>
+      <c r="U90" s="20"/>
+      <c r="V90" s="20"/>
+      <c r="W90" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A91" s="18"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="20"/>
+      <c r="P91" s="20"/>
+      <c r="Q91" s="20"/>
+      <c r="R91" s="20"/>
+      <c r="S91" s="20"/>
+      <c r="T91" s="20"/>
+      <c r="U91" s="20"/>
+      <c r="V91" s="20"/>
+      <c r="W91" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A92" s="18"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="20"/>
+      <c r="O92" s="20"/>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="20"/>
+      <c r="R92" s="20"/>
+      <c r="S92" s="20"/>
+      <c r="T92" s="20"/>
+      <c r="U92" s="20"/>
+      <c r="V92" s="20"/>
+      <c r="W92" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A93" s="18"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="20"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="20"/>
+      <c r="O93" s="20"/>
+      <c r="P93" s="20"/>
+      <c r="Q93" s="20"/>
+      <c r="R93" s="20"/>
+      <c r="S93" s="20"/>
+      <c r="T93" s="20"/>
+      <c r="U93" s="20"/>
+      <c r="V93" s="20"/>
+      <c r="W93" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A94" s="18"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="20"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="20"/>
+      <c r="Q94" s="20"/>
+      <c r="R94" s="20"/>
+      <c r="S94" s="20"/>
+      <c r="T94" s="20"/>
+      <c r="U94" s="20"/>
+      <c r="V94" s="20"/>
+      <c r="W94" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A95" s="18"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="20"/>
+      <c r="O95" s="20"/>
+      <c r="P95" s="20"/>
+      <c r="Q95" s="20"/>
+      <c r="R95" s="20"/>
+      <c r="S95" s="20"/>
+      <c r="T95" s="20"/>
+      <c r="U95" s="20"/>
+      <c r="V95" s="20"/>
+      <c r="W95" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A96" s="18"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="20"/>
+      <c r="O96" s="20"/>
+      <c r="P96" s="20"/>
+      <c r="Q96" s="20"/>
+      <c r="R96" s="20"/>
+      <c r="S96" s="20"/>
+      <c r="T96" s="20"/>
+      <c r="U96" s="20"/>
+      <c r="V96" s="20"/>
+      <c r="W96" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A97" s="18"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="20"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="20"/>
+      <c r="O97" s="20"/>
+      <c r="P97" s="20"/>
+      <c r="Q97" s="20"/>
+      <c r="R97" s="20"/>
+      <c r="S97" s="20"/>
+      <c r="T97" s="20"/>
+      <c r="U97" s="20"/>
+      <c r="V97" s="20"/>
+      <c r="W97" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A98" s="18"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="20"/>
+      <c r="O98" s="20"/>
+      <c r="P98" s="20"/>
+      <c r="Q98" s="20"/>
+      <c r="R98" s="20"/>
+      <c r="S98" s="20"/>
+      <c r="T98" s="20"/>
+      <c r="U98" s="20"/>
+      <c r="V98" s="20"/>
+      <c r="W98" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A99" s="18"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="20"/>
+      <c r="O99" s="20"/>
+      <c r="P99" s="20"/>
+      <c r="Q99" s="20"/>
+      <c r="R99" s="20"/>
+      <c r="S99" s="20"/>
+      <c r="T99" s="20"/>
+      <c r="U99" s="20"/>
+      <c r="V99" s="20"/>
+      <c r="W99" s="20"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="20.25" customFormat="1" s="1">
+      <c r="A100" s="18"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="20"/>
+      <c r="P100" s="20"/>
+      <c r="Q100" s="20"/>
+      <c r="R100" s="20"/>
+      <c r="S100" s="20"/>
+      <c r="T100" s="20"/>
+      <c r="U100" s="20"/>
+      <c r="V100" s="20"/>
+      <c r="W100" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SDP/Filexel/RegSelenium.xlsx
+++ b/SDP/Filexel/RegSelenium.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="248">
   <si>
     <t>NSP-01-01-010</t>
   </si>
@@ -867,6 +867,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFcccccc"/>
       </left>
@@ -886,21 +901,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -948,34 +948,34 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1002,7 +1002,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:W99" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
   <autoFilter ref="A1:W99"/>
   <tableColumns count="23">
-    <tableColumn name="Column25" id="1" totalsRowLabel="Total"/>
+    <tableColumn name="384202311290036" id="1" totalsRowLabel="Total"/>
     <tableColumn name="Column2" id="2"/>
     <tableColumn name="Column3" id="3"/>
     <tableColumn name="Column4" id="4"/>
@@ -1028,7 +1028,7 @@
       <totalsRowFormula>Sum</totalsRowFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
 </file>
 
@@ -1351,85 +1351,41 @@
     <col min="23" max="23" style="25" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="14">
-        <v>384202311220036</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A2" s="18">
-        <v>384202311220036</v>
+        <v>384202311290037</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A2" s="14">
+        <v>384202311290038</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="19"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -1447,17 +1403,17 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="6"/>
-      <c r="W2" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A3" s="21">
-        <v>384202311220037</v>
+      <c r="W2" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A3" s="14">
+        <v>384202311290039</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="22"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1467,24 +1423,24 @@
       <c r="M3" s="6"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
       <c r="V3" s="6"/>
-      <c r="W3" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A4" s="21">
-        <v>384202311220038</v>
-      </c>
-      <c r="B4" s="23"/>
+      <c r="W3" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A4" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="21"/>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1494,24 +1450,22 @@
       <c r="M4" s="6"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A5" s="18">
-        <v>384202311220039</v>
-      </c>
+      <c r="W4" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A5" s="14"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="22"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1521,24 +1475,22 @@
       <c r="M5" s="6"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A6" s="21">
-        <v>384202311220040</v>
-      </c>
+      <c r="W5" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A6" s="14"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1548,24 +1500,24 @@
       <c r="M6" s="6"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A7" s="21">
-        <v>384202311220041</v>
+      <c r="W6" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A7" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="19"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1575,24 +1527,22 @@
       <c r="M7" s="6"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
       <c r="V7" s="6"/>
-      <c r="W7" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A8" s="18">
-        <v>384202311220042</v>
-      </c>
+      <c r="W7" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A8" s="14"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1602,24 +1552,22 @@
       <c r="M8" s="6"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
       <c r="V8" s="6"/>
-      <c r="W8" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A9" s="21">
-        <v>384202311220043</v>
-      </c>
+      <c r="W8" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A9" s="14"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1629,24 +1577,24 @@
       <c r="M9" s="6"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
       <c r="V9" s="6"/>
-      <c r="W9" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A10" s="21">
-        <v>384202311220044</v>
+      <c r="W9" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A10" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1656,24 +1604,22 @@
       <c r="M10" s="6"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
       <c r="V10" s="6"/>
-      <c r="W10" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A11" s="18">
-        <v>384202311220045</v>
-      </c>
+      <c r="W10" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A11" s="14"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1683,24 +1629,22 @@
       <c r="M11" s="6"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
       <c r="V11" s="6"/>
-      <c r="W11" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A12" s="21">
-        <v>384202311220046</v>
-      </c>
+      <c r="W11" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A12" s="14"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1710,24 +1654,24 @@
       <c r="M12" s="6"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
       <c r="V12" s="6"/>
-      <c r="W12" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A13" s="21">
-        <v>384202311220047</v>
+      <c r="W12" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A13" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1737,24 +1681,22 @@
       <c r="M13" s="6"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
       <c r="V13" s="6"/>
-      <c r="W13" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A14" s="18">
-        <v>384202311220048</v>
-      </c>
+      <c r="W13" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A14" s="14"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="22"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1764,24 +1706,22 @@
       <c r="M14" s="6"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A15" s="21">
-        <v>384202311220049</v>
-      </c>
+      <c r="W14" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A15" s="14"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="22"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1791,24 +1731,24 @@
       <c r="M15" s="6"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
       <c r="V15" s="6"/>
-      <c r="W15" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A16" s="21">
-        <v>384202311220050</v>
+      <c r="W15" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A16" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="22"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1818,24 +1758,22 @@
       <c r="M16" s="6"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
       <c r="V16" s="6"/>
-      <c r="W16" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A17" s="18">
-        <v>384202311220051</v>
-      </c>
+      <c r="W16" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A17" s="14"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="22"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1845,24 +1783,22 @@
       <c r="M17" s="6"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
       <c r="V17" s="6"/>
-      <c r="W17" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A18" s="21">
-        <v>384202311220052</v>
-      </c>
+      <c r="W17" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A18" s="22"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="22"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1872,24 +1808,22 @@
       <c r="M18" s="6"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
       <c r="V18" s="6"/>
-      <c r="W18" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A19" s="21">
-        <v>384202311220053</v>
-      </c>
+      <c r="W18" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A19" s="23"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="22"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1899,24 +1833,22 @@
       <c r="M19" s="6"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
       <c r="V19" s="6"/>
-      <c r="W19" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A20" s="18">
-        <v>384202311220054</v>
-      </c>
+      <c r="W19" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A20" s="14"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="22"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1926,24 +1858,22 @@
       <c r="M20" s="6"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
       <c r="V20" s="6"/>
-      <c r="W20" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A21" s="21">
-        <v>384202311220055</v>
-      </c>
+      <c r="W20" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A21" s="22"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="22"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1953,24 +1883,22 @@
       <c r="M21" s="6"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
       <c r="V21" s="6"/>
-      <c r="W21" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A22" s="21">
-        <v>384202311220056</v>
-      </c>
+      <c r="W21" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A22" s="23"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="22"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1980,24 +1908,22 @@
       <c r="M22" s="6"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
       <c r="V22" s="6"/>
-      <c r="W22" s="20"/>
+      <c r="W22" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A23" s="18">
-        <v>384202311220057</v>
-      </c>
+      <c r="A23" s="14"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="22"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -2007,24 +1933,22 @@
       <c r="M23" s="6"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
       <c r="V23" s="6"/>
-      <c r="W23" s="20"/>
+      <c r="W23" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A24" s="21">
-        <v>384202311220058</v>
-      </c>
+      <c r="A24" s="22"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="22"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -2034,24 +1958,22 @@
       <c r="M24" s="6"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
       <c r="V24" s="6"/>
-      <c r="W24" s="20"/>
+      <c r="W24" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A25" s="21">
-        <v>384202311220058.75</v>
-      </c>
+      <c r="A25" s="23"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="22"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -2061,24 +1983,22 @@
       <c r="M25" s="6"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
       <c r="V25" s="6"/>
-      <c r="W25" s="20"/>
+      <c r="W25" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A26" s="21">
-        <v>384202311220059.75</v>
-      </c>
+      <c r="A26" s="14"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="22"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -2088,24 +2008,22 @@
       <c r="M26" s="6"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
       <c r="V26" s="6"/>
-      <c r="W26" s="20"/>
+      <c r="W26" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A27" s="18">
-        <v>384202311220060.75</v>
-      </c>
+      <c r="A27" s="22"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="22"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -2115,24 +2033,22 @@
       <c r="M27" s="6"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
       <c r="V27" s="6"/>
-      <c r="W27" s="20"/>
+      <c r="W27" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A28" s="21">
-        <v>384202311220061.7</v>
-      </c>
+      <c r="A28" s="23"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="22"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -2142,24 +2058,22 @@
       <c r="M28" s="6"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="6"/>
-      <c r="W28" s="20"/>
+      <c r="W28" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A29" s="21">
-        <v>384202311220062.7</v>
-      </c>
+      <c r="A29" s="14"/>
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="22"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -2169,24 +2083,22 @@
       <c r="M29" s="6"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
       <c r="V29" s="6"/>
-      <c r="W29" s="20"/>
+      <c r="W29" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A30" s="18">
-        <v>384202311220063.7</v>
-      </c>
+      <c r="A30" s="22"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="22"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -2196,24 +2108,22 @@
       <c r="M30" s="6"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
       <c r="V30" s="6"/>
-      <c r="W30" s="20"/>
+      <c r="W30" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A31" s="21">
-        <v>384202311220064.6</v>
-      </c>
+      <c r="A31" s="23"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="22"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -2223,24 +2133,22 @@
       <c r="M31" s="6"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
       <c r="V31" s="6"/>
-      <c r="W31" s="20"/>
+      <c r="W31" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A32" s="21">
-        <v>384202311220065.6</v>
-      </c>
+      <c r="A32" s="14"/>
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="22"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -2250,24 +2158,22 @@
       <c r="M32" s="6"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
       <c r="V32" s="6"/>
-      <c r="W32" s="20"/>
+      <c r="W32" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A33" s="21">
-        <v>384202311220066.6</v>
-      </c>
+      <c r="A33" s="22"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="22"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -2277,24 +2183,22 @@
       <c r="M33" s="6"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
       <c r="V33" s="6"/>
-      <c r="W33" s="20"/>
+      <c r="W33" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A34" s="18">
-        <v>384202311220067.56</v>
-      </c>
+      <c r="A34" s="23"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="22"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -2304,22 +2208,22 @@
       <c r="M34" s="6"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
       <c r="V34" s="6"/>
-      <c r="W34" s="20"/>
+      <c r="W34" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A35" s="21"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="2"/>
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="22"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -2329,22 +2233,22 @@
       <c r="M35" s="6"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
       <c r="V35" s="6"/>
-      <c r="W35" s="20"/>
+      <c r="W35" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A36" s="18"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="22"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -2354,22 +2258,22 @@
       <c r="M36" s="6"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
       <c r="V36" s="6"/>
-      <c r="W36" s="20"/>
+      <c r="W36" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A37" s="21"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="22"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -2379,22 +2283,22 @@
       <c r="M37" s="6"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
       <c r="V37" s="6"/>
-      <c r="W37" s="20"/>
+      <c r="W37" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A38" s="21"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="2"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="22"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="19"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -2404,22 +2308,22 @@
       <c r="M38" s="6"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
       <c r="V38" s="6"/>
-      <c r="W38" s="20"/>
+      <c r="W38" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A39" s="21"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="22"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -2429,22 +2333,22 @@
       <c r="M39" s="6"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
       <c r="V39" s="6"/>
-      <c r="W39" s="20"/>
+      <c r="W39" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A40" s="18"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="2"/>
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="22"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -2454,1514 +2358,1514 @@
       <c r="M40" s="6"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="22"/>
-      <c r="S40" s="22"/>
-      <c r="T40" s="22"/>
-      <c r="U40" s="22"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
       <c r="V40" s="6"/>
-      <c r="W40" s="20"/>
+      <c r="W40" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A41" s="21"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A42" s="21"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A44" s="21"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A45" s="21"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A46" s="21"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A47" s="18"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="20"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A48" s="18"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A49" s="21"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A50" s="18"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="17"/>
+      <c r="W50" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A51" s="18"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A52" s="18"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A52" s="23"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A53" s="18"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A54" s="18"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A55" s="21"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="20"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="20"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A57" s="18"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="20"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A58" s="18"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="20"/>
-      <c r="V58" s="20"/>
-      <c r="W58" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A59" s="21"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A60" s="18"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A59" s="14"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A60" s="14"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A61" s="18"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="20"/>
-      <c r="V61" s="20"/>
-      <c r="W61" s="20"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A62" s="21"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="20"/>
-      <c r="W62" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A63" s="18"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="20"/>
-      <c r="W63" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A64" s="18"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
-      <c r="T64" s="20"/>
-      <c r="U64" s="20"/>
-      <c r="V64" s="20"/>
-      <c r="W64" s="20"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A63" s="14"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A64" s="14"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A65" s="18"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="20"/>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="20"/>
-      <c r="W65" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A66" s="21"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="20"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
-      <c r="V66" s="20"/>
-      <c r="W66" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A67" s="18"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="20"/>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="20"/>
-      <c r="T67" s="20"/>
-      <c r="U67" s="20"/>
-      <c r="V67" s="20"/>
-      <c r="W67" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A68" s="18"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="20"/>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="20"/>
-      <c r="T68" s="20"/>
-      <c r="U68" s="20"/>
-      <c r="V68" s="20"/>
-      <c r="W68" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A69" s="18"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="20"/>
-      <c r="T69" s="20"/>
-      <c r="U69" s="20"/>
-      <c r="V69" s="20"/>
-      <c r="W69" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A70" s="21"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
-      <c r="O70" s="20"/>
-      <c r="P70" s="20"/>
-      <c r="Q70" s="20"/>
-      <c r="R70" s="20"/>
-      <c r="S70" s="20"/>
-      <c r="T70" s="20"/>
-      <c r="U70" s="20"/>
-      <c r="V70" s="20"/>
-      <c r="W70" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A71" s="18"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
-      <c r="T71" s="20"/>
-      <c r="U71" s="20"/>
-      <c r="V71" s="20"/>
-      <c r="W71" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A72" s="18"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="20"/>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="20"/>
-      <c r="S72" s="20"/>
-      <c r="T72" s="20"/>
-      <c r="U72" s="20"/>
-      <c r="V72" s="20"/>
-      <c r="W72" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A73" s="18"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="20"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="20"/>
-      <c r="T73" s="20"/>
-      <c r="U73" s="20"/>
-      <c r="V73" s="20"/>
-      <c r="W73" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A74" s="18"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="20"/>
-      <c r="Q74" s="20"/>
-      <c r="R74" s="20"/>
-      <c r="S74" s="20"/>
-      <c r="T74" s="20"/>
-      <c r="U74" s="20"/>
-      <c r="V74" s="20"/>
-      <c r="W74" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A75" s="18"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="20"/>
-      <c r="P75" s="20"/>
-      <c r="Q75" s="20"/>
-      <c r="R75" s="20"/>
-      <c r="S75" s="20"/>
-      <c r="T75" s="20"/>
-      <c r="U75" s="20"/>
-      <c r="V75" s="20"/>
-      <c r="W75" s="20"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A66" s="22"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A67" s="14"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A68" s="14"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="17"/>
+      <c r="W68" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A69" s="14"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="17"/>
+      <c r="U69" s="17"/>
+      <c r="V69" s="17"/>
+      <c r="W69" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A70" s="22"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A71" s="14"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A72" s="14"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A73" s="14"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="17"/>
+      <c r="W73" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A74" s="14"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A75" s="14"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="17"/>
+      <c r="W75" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A76" s="18"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="20"/>
-      <c r="R76" s="20"/>
-      <c r="S76" s="20"/>
-      <c r="T76" s="20"/>
-      <c r="U76" s="20"/>
-      <c r="V76" s="20"/>
-      <c r="W76" s="20"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
+      <c r="V76" s="17"/>
+      <c r="W76" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A77" s="18"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
-      <c r="O77" s="20"/>
-      <c r="P77" s="20"/>
-      <c r="Q77" s="20"/>
-      <c r="R77" s="20"/>
-      <c r="S77" s="20"/>
-      <c r="T77" s="20"/>
-      <c r="U77" s="20"/>
-      <c r="V77" s="20"/>
-      <c r="W77" s="20"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="17"/>
+      <c r="T77" s="17"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="17"/>
+      <c r="W77" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25" customFormat="1" s="1">
-      <c r="A78" s="18"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="20"/>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="20"/>
-      <c r="S78" s="20"/>
-      <c r="T78" s="20"/>
-      <c r="U78" s="20"/>
-      <c r="V78" s="20"/>
-      <c r="W78" s="20"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="17"/>
+      <c r="T78" s="17"/>
+      <c r="U78" s="17"/>
+      <c r="V78" s="17"/>
+      <c r="W78" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A79" s="18"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="20"/>
-      <c r="Q79" s="20"/>
-      <c r="R79" s="20"/>
-      <c r="S79" s="20"/>
-      <c r="T79" s="20"/>
-      <c r="U79" s="20"/>
-      <c r="V79" s="20"/>
-      <c r="W79" s="20"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A80" s="18"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="20"/>
-      <c r="L80" s="20"/>
-      <c r="M80" s="20"/>
-      <c r="N80" s="20"/>
-      <c r="O80" s="20"/>
-      <c r="P80" s="20"/>
-      <c r="Q80" s="20"/>
-      <c r="R80" s="20"/>
-      <c r="S80" s="20"/>
-      <c r="T80" s="20"/>
-      <c r="U80" s="20"/>
-      <c r="V80" s="20"/>
-      <c r="W80" s="20"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
+      <c r="R80" s="17"/>
+      <c r="S80" s="17"/>
+      <c r="T80" s="17"/>
+      <c r="U80" s="17"/>
+      <c r="V80" s="17"/>
+      <c r="W80" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A81" s="18"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20"/>
-      <c r="N81" s="20"/>
-      <c r="O81" s="20"/>
-      <c r="P81" s="20"/>
-      <c r="Q81" s="20"/>
-      <c r="R81" s="20"/>
-      <c r="S81" s="20"/>
-      <c r="T81" s="20"/>
-      <c r="U81" s="20"/>
-      <c r="V81" s="20"/>
-      <c r="W81" s="20"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A82" s="18"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
-      <c r="M82" s="20"/>
-      <c r="N82" s="20"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="20"/>
-      <c r="Q82" s="20"/>
-      <c r="R82" s="20"/>
-      <c r="S82" s="20"/>
-      <c r="T82" s="20"/>
-      <c r="U82" s="20"/>
-      <c r="V82" s="20"/>
-      <c r="W82" s="20"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="17"/>
+      <c r="S82" s="17"/>
+      <c r="T82" s="17"/>
+      <c r="U82" s="17"/>
+      <c r="V82" s="17"/>
+      <c r="W82" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A83" s="18"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="20"/>
-      <c r="P83" s="20"/>
-      <c r="Q83" s="20"/>
-      <c r="R83" s="20"/>
-      <c r="S83" s="20"/>
-      <c r="T83" s="20"/>
-      <c r="U83" s="20"/>
-      <c r="V83" s="20"/>
-      <c r="W83" s="20"/>
+      <c r="A83" s="14"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="17"/>
+      <c r="T83" s="17"/>
+      <c r="U83" s="17"/>
+      <c r="V83" s="17"/>
+      <c r="W83" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A84" s="18"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
-      <c r="S84" s="20"/>
-      <c r="T84" s="20"/>
-      <c r="U84" s="20"/>
-      <c r="V84" s="20"/>
-      <c r="W84" s="20"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A85" s="18"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="20"/>
-      <c r="O85" s="20"/>
-      <c r="P85" s="20"/>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="20"/>
-      <c r="S85" s="20"/>
-      <c r="T85" s="20"/>
-      <c r="U85" s="20"/>
-      <c r="V85" s="20"/>
-      <c r="W85" s="20"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="17"/>
+      <c r="T85" s="17"/>
+      <c r="U85" s="17"/>
+      <c r="V85" s="17"/>
+      <c r="W85" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A86" s="18"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="20"/>
-      <c r="N86" s="20"/>
-      <c r="O86" s="20"/>
-      <c r="P86" s="20"/>
-      <c r="Q86" s="20"/>
-      <c r="R86" s="20"/>
-      <c r="S86" s="20"/>
-      <c r="T86" s="20"/>
-      <c r="U86" s="20"/>
-      <c r="V86" s="20"/>
-      <c r="W86" s="20"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="17"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="17"/>
+      <c r="V86" s="17"/>
+      <c r="W86" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A87" s="18"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="20"/>
-      <c r="N87" s="20"/>
-      <c r="O87" s="20"/>
-      <c r="P87" s="20"/>
-      <c r="Q87" s="20"/>
-      <c r="R87" s="20"/>
-      <c r="S87" s="20"/>
-      <c r="T87" s="20"/>
-      <c r="U87" s="20"/>
-      <c r="V87" s="20"/>
-      <c r="W87" s="20"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="17"/>
+      <c r="T87" s="17"/>
+      <c r="U87" s="17"/>
+      <c r="V87" s="17"/>
+      <c r="W87" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A88" s="18"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="20"/>
-      <c r="M88" s="20"/>
-      <c r="N88" s="20"/>
-      <c r="O88" s="20"/>
-      <c r="P88" s="20"/>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="20"/>
-      <c r="S88" s="20"/>
-      <c r="T88" s="20"/>
-      <c r="U88" s="20"/>
-      <c r="V88" s="20"/>
-      <c r="W88" s="20"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="17"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="17"/>
+      <c r="V88" s="17"/>
+      <c r="W88" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A89" s="18"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="20"/>
-      <c r="M89" s="20"/>
-      <c r="N89" s="20"/>
-      <c r="O89" s="20"/>
-      <c r="P89" s="20"/>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="20"/>
-      <c r="S89" s="20"/>
-      <c r="T89" s="20"/>
-      <c r="U89" s="20"/>
-      <c r="V89" s="20"/>
-      <c r="W89" s="20"/>
+      <c r="A89" s="14"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="17"/>
+      <c r="S89" s="17"/>
+      <c r="T89" s="17"/>
+      <c r="U89" s="17"/>
+      <c r="V89" s="17"/>
+      <c r="W89" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A90" s="18"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-      <c r="K90" s="20"/>
-      <c r="L90" s="20"/>
-      <c r="M90" s="20"/>
-      <c r="N90" s="20"/>
-      <c r="O90" s="20"/>
-      <c r="P90" s="20"/>
-      <c r="Q90" s="20"/>
-      <c r="R90" s="20"/>
-      <c r="S90" s="20"/>
-      <c r="T90" s="20"/>
-      <c r="U90" s="20"/>
-      <c r="V90" s="20"/>
-      <c r="W90" s="20"/>
+      <c r="A90" s="14"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="17"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="17"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A91" s="18"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="20"/>
-      <c r="N91" s="20"/>
-      <c r="O91" s="20"/>
-      <c r="P91" s="20"/>
-      <c r="Q91" s="20"/>
-      <c r="R91" s="20"/>
-      <c r="S91" s="20"/>
-      <c r="T91" s="20"/>
-      <c r="U91" s="20"/>
-      <c r="V91" s="20"/>
-      <c r="W91" s="20"/>
+      <c r="A91" s="14"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="17"/>
+      <c r="T91" s="17"/>
+      <c r="U91" s="17"/>
+      <c r="V91" s="17"/>
+      <c r="W91" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A92" s="18"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="20"/>
-      <c r="O92" s="20"/>
-      <c r="P92" s="20"/>
-      <c r="Q92" s="20"/>
-      <c r="R92" s="20"/>
-      <c r="S92" s="20"/>
-      <c r="T92" s="20"/>
-      <c r="U92" s="20"/>
-      <c r="V92" s="20"/>
-      <c r="W92" s="20"/>
+      <c r="A92" s="14"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="17"/>
+      <c r="T92" s="17"/>
+      <c r="U92" s="17"/>
+      <c r="V92" s="17"/>
+      <c r="W92" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A93" s="18"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="20"/>
-      <c r="M93" s="20"/>
-      <c r="N93" s="20"/>
-      <c r="O93" s="20"/>
-      <c r="P93" s="20"/>
-      <c r="Q93" s="20"/>
-      <c r="R93" s="20"/>
-      <c r="S93" s="20"/>
-      <c r="T93" s="20"/>
-      <c r="U93" s="20"/>
-      <c r="V93" s="20"/>
-      <c r="W93" s="20"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="17"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="17"/>
+      <c r="V93" s="17"/>
+      <c r="W93" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A94" s="18"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
-      <c r="O94" s="20"/>
-      <c r="P94" s="20"/>
-      <c r="Q94" s="20"/>
-      <c r="R94" s="20"/>
-      <c r="S94" s="20"/>
-      <c r="T94" s="20"/>
-      <c r="U94" s="20"/>
-      <c r="V94" s="20"/>
-      <c r="W94" s="20"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
+      <c r="R94" s="17"/>
+      <c r="S94" s="17"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="17"/>
+      <c r="V94" s="17"/>
+      <c r="W94" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A95" s="18"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="20"/>
-      <c r="L95" s="20"/>
-      <c r="M95" s="20"/>
-      <c r="N95" s="20"/>
-      <c r="O95" s="20"/>
-      <c r="P95" s="20"/>
-      <c r="Q95" s="20"/>
-      <c r="R95" s="20"/>
-      <c r="S95" s="20"/>
-      <c r="T95" s="20"/>
-      <c r="U95" s="20"/>
-      <c r="V95" s="20"/>
-      <c r="W95" s="20"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="17"/>
+      <c r="T95" s="17"/>
+      <c r="U95" s="17"/>
+      <c r="V95" s="17"/>
+      <c r="W95" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A96" s="18"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="20"/>
-      <c r="N96" s="20"/>
-      <c r="O96" s="20"/>
-      <c r="P96" s="20"/>
-      <c r="Q96" s="20"/>
-      <c r="R96" s="20"/>
-      <c r="S96" s="20"/>
-      <c r="T96" s="20"/>
-      <c r="U96" s="20"/>
-      <c r="V96" s="20"/>
-      <c r="W96" s="20"/>
+      <c r="A96" s="14"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
+      <c r="R96" s="17"/>
+      <c r="S96" s="17"/>
+      <c r="T96" s="17"/>
+      <c r="U96" s="17"/>
+      <c r="V96" s="17"/>
+      <c r="W96" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A97" s="18"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20"/>
-      <c r="M97" s="20"/>
-      <c r="N97" s="20"/>
-      <c r="O97" s="20"/>
-      <c r="P97" s="20"/>
-      <c r="Q97" s="20"/>
-      <c r="R97" s="20"/>
-      <c r="S97" s="20"/>
-      <c r="T97" s="20"/>
-      <c r="U97" s="20"/>
-      <c r="V97" s="20"/>
-      <c r="W97" s="20"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="17"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="17"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A98" s="18"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="20"/>
-      <c r="N98" s="20"/>
-      <c r="O98" s="20"/>
-      <c r="P98" s="20"/>
-      <c r="Q98" s="20"/>
-      <c r="R98" s="20"/>
-      <c r="S98" s="20"/>
-      <c r="T98" s="20"/>
-      <c r="U98" s="20"/>
-      <c r="V98" s="20"/>
-      <c r="W98" s="20"/>
+      <c r="A98" s="14"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="17"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="17"/>
+      <c r="V98" s="17"/>
+      <c r="W98" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A99" s="18"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="20"/>
-      <c r="N99" s="20"/>
-      <c r="O99" s="20"/>
-      <c r="P99" s="20"/>
-      <c r="Q99" s="20"/>
-      <c r="R99" s="20"/>
-      <c r="S99" s="20"/>
-      <c r="T99" s="20"/>
-      <c r="U99" s="20"/>
-      <c r="V99" s="20"/>
-      <c r="W99" s="20"/>
+      <c r="A99" s="14"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="17"/>
+      <c r="T99" s="17"/>
+      <c r="U99" s="17"/>
+      <c r="V99" s="17"/>
+      <c r="W99" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A100" s="18"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="20"/>
-      <c r="K100" s="20"/>
-      <c r="L100" s="20"/>
-      <c r="M100" s="20"/>
-      <c r="N100" s="20"/>
-      <c r="O100" s="20"/>
-      <c r="P100" s="20"/>
-      <c r="Q100" s="20"/>
-      <c r="R100" s="20"/>
-      <c r="S100" s="20"/>
-      <c r="T100" s="20"/>
-      <c r="U100" s="20"/>
-      <c r="V100" s="20"/>
-      <c r="W100" s="20"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="17"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="17"/>
+      <c r="V100" s="17"/>
+      <c r="W100" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SDP/Filexel/RegSelenium.xlsx
+++ b/SDP/Filexel/RegSelenium.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="280">
   <si>
     <t>NSP-01-01-010</t>
   </si>
@@ -758,7 +758,103 @@
     <t>Npts/048</t>
   </si>
   <si>
-    <t/>
+    <t>NOMOR INDUK</t>
+  </si>
+  <si>
+    <t>JENIS HUKUMAN</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>Column13</t>
+  </si>
+  <si>
+    <t>Column14</t>
+  </si>
+  <si>
+    <t>Column15</t>
+  </si>
+  <si>
+    <t>Column16</t>
+  </si>
+  <si>
+    <t>Column17</t>
+  </si>
+  <si>
+    <t>Column18</t>
+  </si>
+  <si>
+    <t>Column19</t>
+  </si>
+  <si>
+    <t>Column20</t>
+  </si>
+  <si>
+    <t>Column21</t>
+  </si>
+  <si>
+    <t>Column22</t>
+  </si>
+  <si>
+    <t>Column23</t>
+  </si>
+  <si>
+    <t>A II</t>
+  </si>
+  <si>
+    <t>A III</t>
+  </si>
+  <si>
+    <t>A IV</t>
+  </si>
+  <si>
+    <t>A V</t>
+  </si>
+  <si>
+    <t>B I</t>
+  </si>
+  <si>
+    <t>B II A</t>
+  </si>
+  <si>
+    <t>B II B</t>
+  </si>
+  <si>
+    <t>B III</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Hukuman Mati</t>
   </si>
 </sst>
 </file>
@@ -813,7 +909,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -882,21 +978,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFcccccc"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -907,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -951,31 +1032,22 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1002,8 +1074,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:W99" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
   <autoFilter ref="A1:W99"/>
   <tableColumns count="23">
-    <tableColumn name="384202311290036" id="1" totalsRowLabel="Total"/>
-    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="NOMOR INDUK" id="1" totalsRowLabel="Total"/>
+    <tableColumn name="JENIS HUKUMAN" id="2"/>
     <tableColumn name="Column3" id="3"/>
     <tableColumn name="Column4" id="4"/>
     <tableColumn name="Column5" id="5"/>
@@ -1320,73 +1392,117 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W100"/>
+  <dimension ref="A1:W99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="24" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="25" width="37.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="25" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="25" width="17.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="25" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="25" width="38.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="25" width="43.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="25" width="37.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="25" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="25" width="35.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="25" width="41.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="25" width="41.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="25" width="32.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="25" width="39.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="25" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="25" width="31.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="25" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="25" width="33.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="25" width="33.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="25" width="29.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="25" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="25" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="25" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="21" width="31.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="22" width="37.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="37.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="22" width="17.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="22" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="22" width="38.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="43.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="22" width="37.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="22" width="40.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="22" width="35.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="22" width="41.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="22" width="41.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="22" width="32.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="22" width="39.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="22" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="22" width="31.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="22" width="37.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="22" width="33.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="22" width="33.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="22" width="29.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="22" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A1" s="14">
-        <v>384202311290037</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="17"/>
+      <c r="A1" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="14">
-        <v>384202311290038</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>384202312210022</v>
+      </c>
+      <c r="B2" s="15"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1396,24 +1512,26 @@
       <c r="M2" s="6"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
       <c r="V2" s="6"/>
       <c r="W2" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A3" s="14">
-        <v>384202311290039</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>384202312210002</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>270</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1423,24 +1541,26 @@
       <c r="M3" s="6"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
       <c r="V3" s="6"/>
       <c r="W3" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A4" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="21"/>
+      <c r="A4" s="14">
+        <v>384202312210003</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>271</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="19"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1450,22 +1570,26 @@
       <c r="M4" s="6"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
       <c r="V4" s="6"/>
       <c r="W4" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="14">
+        <v>384202312210004</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>272</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="19"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1475,22 +1599,26 @@
       <c r="M5" s="6"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
       <c r="V5" s="6"/>
       <c r="W5" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="14">
+        <v>384202312210005</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>273</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="19"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1500,24 +1628,26 @@
       <c r="M6" s="6"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
       <c r="V6" s="6"/>
       <c r="W6" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A7" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" s="2"/>
+      <c r="A7" s="14">
+        <v>384202312210006</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>274</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="19"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1527,22 +1657,26 @@
       <c r="M7" s="6"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
       <c r="V7" s="6"/>
       <c r="W7" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="14">
+        <v>384202312210007</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>275</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="19"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1552,22 +1686,26 @@
       <c r="M8" s="6"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
       <c r="V8" s="6"/>
       <c r="W8" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="14">
+        <v>384202312210008</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>276</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="19"/>
+      <c r="F9" s="16"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1577,24 +1715,26 @@
       <c r="M9" s="6"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
       <c r="V9" s="6"/>
       <c r="W9" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A10" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="2"/>
+      <c r="A10" s="14">
+        <v>384202312210009</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>277</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="19"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1604,22 +1744,26 @@
       <c r="M10" s="6"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
       <c r="V10" s="6"/>
       <c r="W10" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="14">
+        <v>384202312210010</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>278</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="19"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1629,22 +1773,26 @@
       <c r="M11" s="6"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
       <c r="V11" s="6"/>
       <c r="W11" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="14">
+        <v>384202312210011</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>279</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="19"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1654,24 +1802,22 @@
       <c r="M12" s="6"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
       <c r="V12" s="6"/>
       <c r="W12" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A13" s="20" t="s">
-        <v>247</v>
-      </c>
+      <c r="A13" s="14"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1681,12 +1827,12 @@
       <c r="M13" s="6"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
       <c r="V13" s="6"/>
       <c r="W13" s="17"/>
     </row>
@@ -1696,7 +1842,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1706,12 +1852,12 @@
       <c r="M14" s="6"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
       <c r="V14" s="6"/>
       <c r="W14" s="17"/>
     </row>
@@ -1721,7 +1867,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1731,24 +1877,22 @@
       <c r="M15" s="6"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
       <c r="V15" s="6"/>
       <c r="W15" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A16" s="20" t="s">
-        <v>247</v>
-      </c>
+      <c r="A16" s="14"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="4"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1758,12 +1902,12 @@
       <c r="M16" s="6"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
       <c r="V16" s="6"/>
       <c r="W16" s="17"/>
     </row>
@@ -1773,7 +1917,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1783,22 +1927,22 @@
       <c r="M17" s="6"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
       <c r="V17" s="6"/>
       <c r="W17" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A18" s="22"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1808,22 +1952,22 @@
       <c r="M18" s="6"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
       <c r="V18" s="6"/>
       <c r="W18" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A19" s="23"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1833,12 +1977,12 @@
       <c r="M19" s="6"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
       <c r="V19" s="6"/>
       <c r="W19" s="17"/>
     </row>
@@ -1848,7 +1992,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="4"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1858,22 +2002,22 @@
       <c r="M20" s="6"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
       <c r="V20" s="6"/>
       <c r="W20" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A21" s="22"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1883,22 +2027,22 @@
       <c r="M21" s="6"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
       <c r="V21" s="6"/>
       <c r="W21" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A22" s="23"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="4"/>
       <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1908,22 +2052,22 @@
       <c r="M22" s="6"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
       <c r="V22" s="6"/>
       <c r="W22" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A23" s="14"/>
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="4"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1933,22 +2077,22 @@
       <c r="M23" s="6"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
       <c r="V23" s="6"/>
       <c r="W23" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A24" s="22"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1958,22 +2102,22 @@
       <c r="M24" s="6"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
       <c r="V24" s="6"/>
       <c r="W24" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A25" s="23"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1983,12 +2127,12 @@
       <c r="M25" s="6"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
       <c r="V25" s="6"/>
       <c r="W25" s="17"/>
     </row>
@@ -1998,7 +2142,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -2008,22 +2152,22 @@
       <c r="M26" s="6"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
       <c r="V26" s="6"/>
       <c r="W26" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A27" s="22"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -2033,22 +2177,22 @@
       <c r="M27" s="6"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
       <c r="V27" s="6"/>
       <c r="W27" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A28" s="23"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -2058,12 +2202,12 @@
       <c r="M28" s="6"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
       <c r="V28" s="6"/>
       <c r="W28" s="17"/>
     </row>
@@ -2073,7 +2217,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -2083,22 +2227,22 @@
       <c r="M29" s="6"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
       <c r="V29" s="6"/>
       <c r="W29" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A30" s="22"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
       <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -2108,22 +2252,22 @@
       <c r="M30" s="6"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
       <c r="V30" s="6"/>
       <c r="W30" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A31" s="23"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
+      <c r="F31" s="16"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -2133,12 +2277,12 @@
       <c r="M31" s="6"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
       <c r="V31" s="6"/>
       <c r="W31" s="17"/>
     </row>
@@ -2148,7 +2292,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="4"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
+      <c r="F32" s="16"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -2158,22 +2302,22 @@
       <c r="M32" s="6"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
       <c r="V32" s="6"/>
       <c r="W32" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A33" s="22"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
       <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -2183,22 +2327,22 @@
       <c r="M33" s="6"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
       <c r="V33" s="6"/>
       <c r="W33" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A34" s="23"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
+      <c r="F34" s="16"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -2208,12 +2352,12 @@
       <c r="M34" s="6"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
       <c r="V34" s="6"/>
       <c r="W34" s="17"/>
     </row>
@@ -2223,7 +2367,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="4"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -2233,22 +2377,22 @@
       <c r="M35" s="6"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
       <c r="V35" s="6"/>
       <c r="W35" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A36" s="22"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="2"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -2258,22 +2402,22 @@
       <c r="M36" s="6"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
       <c r="V36" s="6"/>
       <c r="W36" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A37" s="23"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="2"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -2283,12 +2427,12 @@
       <c r="M37" s="6"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
       <c r="V37" s="6"/>
       <c r="W37" s="17"/>
     </row>
@@ -2298,7 +2442,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -2308,22 +2452,22 @@
       <c r="M38" s="6"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
       <c r="V38" s="6"/>
       <c r="W38" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A39" s="22"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
+      <c r="F39" s="16"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -2333,46 +2477,46 @@
       <c r="M39" s="6"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
       <c r="V39" s="6"/>
       <c r="W39" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A40" s="23"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="6"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
       <c r="W40" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A41" s="14"/>
-      <c r="B41" s="17"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="19"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
@@ -2393,11 +2537,11 @@
       <c r="W41" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A42" s="22"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
+      <c r="E42" s="19"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
@@ -2418,11 +2562,11 @@
       <c r="W42" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A43" s="23"/>
-      <c r="B43" s="17"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
+      <c r="E43" s="19"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
@@ -2444,10 +2588,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A44" s="14"/>
-      <c r="B44" s="17"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
+      <c r="E44" s="19"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
@@ -2468,11 +2612,11 @@
       <c r="W44" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A45" s="22"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
+      <c r="E45" s="19"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -2493,11 +2637,11 @@
       <c r="W45" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A46" s="23"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
+      <c r="E46" s="19"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -2519,10 +2663,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A47" s="14"/>
-      <c r="B47" s="17"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
+      <c r="E47" s="19"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -2542,12 +2686,12 @@
       <c r="V47" s="17"/>
       <c r="W47" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A48" s="22"/>
-      <c r="B48" s="17"/>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A48" s="14"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="E48" s="19"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -2567,12 +2711,12 @@
       <c r="V48" s="17"/>
       <c r="W48" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A49" s="23"/>
-      <c r="B49" s="17"/>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A49" s="14"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="E49" s="19"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
@@ -2594,10 +2738,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A50" s="14"/>
-      <c r="B50" s="17"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
+      <c r="E50" s="19"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
@@ -2617,12 +2761,12 @@
       <c r="V50" s="17"/>
       <c r="W50" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A51" s="22"/>
-      <c r="B51" s="17"/>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A51" s="14"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
+      <c r="E51" s="19"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
@@ -2643,11 +2787,11 @@
       <c r="W51" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A52" s="23"/>
-      <c r="B52" s="17"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
+      <c r="E52" s="19"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
@@ -2669,10 +2813,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A53" s="14"/>
-      <c r="B53" s="17"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
+      <c r="E53" s="19"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
@@ -2693,11 +2837,11 @@
       <c r="W53" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A54" s="22"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
+      <c r="E54" s="19"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
@@ -2718,11 +2862,11 @@
       <c r="W54" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A55" s="23"/>
-      <c r="B55" s="17"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
+      <c r="E55" s="19"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
@@ -2744,10 +2888,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A56" s="14"/>
-      <c r="B56" s="17"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
+      <c r="E56" s="19"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
@@ -2768,11 +2912,11 @@
       <c r="W56" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A57" s="22"/>
-      <c r="B57" s="17"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
+      <c r="E57" s="19"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
@@ -2792,12 +2936,12 @@
       <c r="V57" s="17"/>
       <c r="W57" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A58" s="23"/>
-      <c r="B58" s="17"/>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A58" s="14"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
+      <c r="E58" s="19"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
@@ -2819,10 +2963,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A59" s="14"/>
-      <c r="B59" s="17"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
+      <c r="E59" s="19"/>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
@@ -2842,12 +2986,12 @@
       <c r="V59" s="17"/>
       <c r="W59" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75" customFormat="1" s="1">
-      <c r="A60" s="14"/>
-      <c r="B60" s="17"/>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A60" s="20"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
+      <c r="E60" s="19"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
@@ -2869,10 +3013,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A61" s="14"/>
-      <c r="B61" s="17"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
+      <c r="E61" s="19"/>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
@@ -2892,12 +3036,12 @@
       <c r="V61" s="17"/>
       <c r="W61" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A62" s="22"/>
-      <c r="B62" s="17"/>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A62" s="14"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
+      <c r="E62" s="19"/>
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
       <c r="H62" s="17"/>
@@ -2919,10 +3063,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A63" s="14"/>
-      <c r="B63" s="17"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
+      <c r="E63" s="19"/>
       <c r="F63" s="17"/>
       <c r="G63" s="17"/>
       <c r="H63" s="17"/>
@@ -2942,12 +3086,12 @@
       <c r="V63" s="17"/>
       <c r="W63" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A64" s="14"/>
-      <c r="B64" s="17"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
+      <c r="E64" s="19"/>
       <c r="F64" s="17"/>
       <c r="G64" s="17"/>
       <c r="H64" s="17"/>
@@ -2969,10 +3113,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A65" s="14"/>
-      <c r="B65" s="17"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
+      <c r="E65" s="19"/>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
@@ -2992,12 +3136,12 @@
       <c r="V65" s="17"/>
       <c r="W65" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A66" s="22"/>
-      <c r="B66" s="17"/>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A66" s="14"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
+      <c r="E66" s="19"/>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
@@ -3019,10 +3163,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A67" s="14"/>
-      <c r="B67" s="17"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
+      <c r="E67" s="19"/>
       <c r="F67" s="17"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
@@ -3042,12 +3186,12 @@
       <c r="V67" s="17"/>
       <c r="W67" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A68" s="14"/>
-      <c r="B68" s="17"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
+      <c r="E68" s="19"/>
       <c r="F68" s="17"/>
       <c r="G68" s="17"/>
       <c r="H68" s="17"/>
@@ -3069,10 +3213,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A69" s="14"/>
-      <c r="B69" s="17"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
+      <c r="E69" s="19"/>
       <c r="F69" s="17"/>
       <c r="G69" s="17"/>
       <c r="H69" s="17"/>
@@ -3092,12 +3236,12 @@
       <c r="V69" s="17"/>
       <c r="W69" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A70" s="22"/>
-      <c r="B70" s="17"/>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A70" s="14"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
+      <c r="E70" s="19"/>
       <c r="F70" s="17"/>
       <c r="G70" s="17"/>
       <c r="H70" s="17"/>
@@ -3119,10 +3263,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A71" s="14"/>
-      <c r="B71" s="17"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
+      <c r="E71" s="19"/>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
@@ -3144,10 +3288,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A72" s="14"/>
-      <c r="B72" s="17"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
+      <c r="E72" s="19"/>
       <c r="F72" s="17"/>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
@@ -3169,10 +3313,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A73" s="14"/>
-      <c r="B73" s="17"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
+      <c r="E73" s="19"/>
       <c r="F73" s="17"/>
       <c r="G73" s="17"/>
       <c r="H73" s="17"/>
@@ -3194,10 +3338,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A74" s="14"/>
-      <c r="B74" s="17"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
+      <c r="E74" s="19"/>
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
@@ -3217,12 +3361,12 @@
       <c r="V74" s="17"/>
       <c r="W74" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A75" s="14"/>
-      <c r="B75" s="17"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
+      <c r="E75" s="19"/>
       <c r="F75" s="17"/>
       <c r="G75" s="17"/>
       <c r="H75" s="17"/>
@@ -3244,10 +3388,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A76" s="14"/>
-      <c r="B76" s="17"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
+      <c r="E76" s="19"/>
       <c r="F76" s="17"/>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
@@ -3269,10 +3413,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A77" s="14"/>
-      <c r="B77" s="17"/>
+      <c r="B77" s="19"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
+      <c r="E77" s="19"/>
       <c r="F77" s="17"/>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
@@ -3292,12 +3436,12 @@
       <c r="V77" s="17"/>
       <c r="W77" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A78" s="14"/>
-      <c r="B78" s="17"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
+      <c r="E78" s="19"/>
       <c r="F78" s="17"/>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
@@ -3319,10 +3463,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A79" s="14"/>
-      <c r="B79" s="17"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="17"/>
       <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
+      <c r="E79" s="19"/>
       <c r="F79" s="17"/>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
@@ -3344,10 +3488,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A80" s="14"/>
-      <c r="B80" s="17"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
+      <c r="E80" s="19"/>
       <c r="F80" s="17"/>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
@@ -3369,10 +3513,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A81" s="14"/>
-      <c r="B81" s="17"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
+      <c r="E81" s="19"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
@@ -3394,10 +3538,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A82" s="14"/>
-      <c r="B82" s="17"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
+      <c r="E82" s="19"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
@@ -3419,10 +3563,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A83" s="14"/>
-      <c r="B83" s="17"/>
+      <c r="B83" s="19"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
+      <c r="E83" s="19"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
@@ -3444,10 +3588,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A84" s="14"/>
-      <c r="B84" s="17"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
+      <c r="E84" s="19"/>
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
@@ -3469,10 +3613,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A85" s="14"/>
-      <c r="B85" s="17"/>
+      <c r="B85" s="19"/>
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
+      <c r="E85" s="19"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
@@ -3494,10 +3638,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A86" s="14"/>
-      <c r="B86" s="17"/>
+      <c r="B86" s="19"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
+      <c r="E86" s="19"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
@@ -3519,10 +3663,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A87" s="14"/>
-      <c r="B87" s="17"/>
+      <c r="B87" s="19"/>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
+      <c r="E87" s="19"/>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
@@ -3544,10 +3688,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A88" s="14"/>
-      <c r="B88" s="17"/>
+      <c r="B88" s="19"/>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
+      <c r="E88" s="19"/>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
@@ -3569,10 +3713,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A89" s="14"/>
-      <c r="B89" s="17"/>
+      <c r="B89" s="19"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
+      <c r="E89" s="19"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
@@ -3594,10 +3738,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A90" s="14"/>
-      <c r="B90" s="17"/>
+      <c r="B90" s="19"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
+      <c r="E90" s="19"/>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
@@ -3619,10 +3763,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A91" s="14"/>
-      <c r="B91" s="17"/>
+      <c r="B91" s="19"/>
       <c r="C91" s="17"/>
       <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
+      <c r="E91" s="19"/>
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
@@ -3644,10 +3788,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A92" s="14"/>
-      <c r="B92" s="17"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
+      <c r="E92" s="19"/>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
       <c r="H92" s="17"/>
@@ -3669,10 +3813,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A93" s="14"/>
-      <c r="B93" s="17"/>
+      <c r="B93" s="19"/>
       <c r="C93" s="17"/>
       <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
+      <c r="E93" s="19"/>
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
@@ -3694,10 +3838,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A94" s="14"/>
-      <c r="B94" s="17"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
+      <c r="E94" s="19"/>
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
@@ -3719,10 +3863,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A95" s="14"/>
-      <c r="B95" s="17"/>
+      <c r="B95" s="19"/>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
+      <c r="E95" s="19"/>
       <c r="F95" s="17"/>
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
@@ -3744,10 +3888,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A96" s="14"/>
-      <c r="B96" s="17"/>
+      <c r="B96" s="19"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
+      <c r="E96" s="19"/>
       <c r="F96" s="17"/>
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
@@ -3769,10 +3913,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A97" s="14"/>
-      <c r="B97" s="17"/>
+      <c r="B97" s="19"/>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
+      <c r="E97" s="19"/>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
@@ -3794,10 +3938,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A98" s="14"/>
-      <c r="B98" s="17"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
+      <c r="E98" s="19"/>
       <c r="F98" s="17"/>
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
@@ -3817,12 +3961,12 @@
       <c r="V98" s="17"/>
       <c r="W98" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="19.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="20.25" customFormat="1" s="1">
       <c r="A99" s="14"/>
-      <c r="B99" s="17"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="17"/>
       <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
+      <c r="E99" s="19"/>
       <c r="F99" s="17"/>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
@@ -3841,31 +3985,6 @@
       <c r="U99" s="17"/>
       <c r="V99" s="17"/>
       <c r="W99" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="20.25" customFormat="1" s="1">
-      <c r="A100" s="14"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="17"/>
-      <c r="T100" s="17"/>
-      <c r="U100" s="17"/>
-      <c r="V100" s="17"/>
-      <c r="W100" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SDP/Filexel/RegSelenium.xlsx
+++ b/SDP/Filexel/RegSelenium.xlsx
@@ -1496,7 +1496,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="14">
-        <v>384202312210022</v>
+        <v>384202312210021</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="3"/>
